--- a/fun with fd.xlsx
+++ b/fun with fd.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saxouser\source\repos\compFin 3\Week 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saxouser\source\repos\WBS_Class\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" firstSheet="1" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26083" windowHeight="10882" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="duality" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,9 @@
     <sheet name="cn" sheetId="10" r:id="rId9"/>
     <sheet name="accuracy" sheetId="11" r:id="rId10"/>
     <sheet name="accuracy (2)" sheetId="12" r:id="rId11"/>
-    <sheet name="black" sheetId="13" r:id="rId12"/>
-    <sheet name="ade" sheetId="14" r:id="rId13"/>
+    <sheet name="speed" sheetId="15" r:id="rId12"/>
+    <sheet name="black" sheetId="13" r:id="rId13"/>
+    <sheet name="ade" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="86">
   <si>
     <t>num t</t>
   </si>
@@ -292,12 +293,15 @@
   <si>
     <t>fd/ade</t>
   </si>
+  <si>
+    <t>no update</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000000000000000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -309,6 +313,7 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="0.0000000000000000"/>
     <numFmt numFmtId="173" formatCode="0.00000000000000000"/>
+    <numFmt numFmtId="174" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -362,7 +367,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -420,6 +425,20 @@
     </xf>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -847,157 +866,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>1.3344850284355311E-11</c:v>
+                  <c:v>3.8509466842317675E-10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5498408477297596E-12</c:v>
+                  <c:v>4.1279919595038633E-11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.2915712684858566E-11</c:v>
+                  <c:v>9.7461430107675939E-11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.9863366649199323E-11</c:v>
+                  <c:v>4.1892976061420087E-10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6222714952115764E-11</c:v>
+                  <c:v>3.3102799612332792E-10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.9280020051330385E-11</c:v>
+                  <c:v>2.6523413517530178E-9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.0719562224541186E-10</c:v>
+                  <c:v>1.3481784702105084E-8</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.7816270223564072E-10</c:v>
+                  <c:v>5.0971365146988255E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0563692643195137E-9</c:v>
+                  <c:v>7.377883369960027E-9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4767242675863462E-10</c:v>
+                  <c:v>9.5734780933220313E-9</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8223151113536357E-10</c:v>
+                  <c:v>1.7208660210110029E-8</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.44384501773083E-9</c:v>
+                  <c:v>7.4766874264159377E-8</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.6025853533980802E-9</c:v>
+                  <c:v>4.4635481343622996E-8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.5659195354476884E-6</c:v>
+                  <c:v>5.3699051219895857E-8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.8316194212275331E-6</c:v>
+                  <c:v>3.8836667874361753E-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.3182549738313018E-6</c:v>
+                  <c:v>8.7184844714649926E-7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1402590835283971E-6</c:v>
+                  <c:v>7.4030164155239905E-7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.547111025514195E-6</c:v>
+                  <c:v>3.5928935184510412E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.8038299815063567E-4</c:v>
+                  <c:v>5.3521186189719944E-7</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.38298235026745E-4</c:v>
+                  <c:v>1.0927979252553864E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.5616263215497002E-4</c:v>
+                  <c:v>4.8391138800894448E-4</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1872156503598091E-2</c:v>
+                  <c:v>3.412715156020079E-4</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.88740953136171E-2</c:v>
+                  <c:v>7.8798001990881175E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3490601328459978E-2</c:v>
+                  <c:v>8.8505983644876079E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.20643429694003779</c:v>
+                  <c:v>7.6847732564536086E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.5841780525827458</c:v>
+                  <c:v>0.15951999978370665</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8840683514090085E-2</c:v>
+                  <c:v>0.52434188652507951</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.8093881951272234E-2</c:v>
+                  <c:v>3.2832414907855351E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.4591431331051446E-2</c:v>
+                  <c:v>7.9161206955749956E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4528963820577707E-2</c:v>
+                  <c:v>4.7936310406979116E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.7716915811181052E-3</c:v>
+                  <c:v>1.6418837657049136E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.4718314976299933E-4</c:v>
+                  <c:v>5.5373775721483109E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.236714890528428E-4</c:v>
+                  <c:v>3.2911984415415186E-4</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3.9985578815434233E-5</c:v>
+                  <c:v>3.7103685491874608E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.3584943259524598E-5</c:v>
+                  <c:v>2.1407091682446754E-4</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.039557987735737E-4</c:v>
+                  <c:v>1.9933983243157442E-4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.8448398563512814E-6</c:v>
+                  <c:v>1.7741660392158593E-4</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.8312991115134767E-5</c:v>
+                  <c:v>4.305304243800146E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.8213136762753837E-7</c:v>
+                  <c:v>5.306716816943912E-5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>6.6005159440882961E-8</c:v>
+                  <c:v>8.0961534833993065E-5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.8874545873059134E-9</c:v>
+                  <c:v>4.8620928906868741E-5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.6178500241804143E-9</c:v>
+                  <c:v>6.698764408870666E-8</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.9283178680639491E-9</c:v>
+                  <c:v>8.0795747961228473E-8</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.2393642791290379E-9</c:v>
+                  <c:v>1.0476393428172691E-7</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.4104855641593587E-10</c:v>
+                  <c:v>7.8527371608484575E-8</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.6429310869832519E-10</c:v>
+                  <c:v>3.4059745131338081E-9</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.5788719384092174E-10</c:v>
+                  <c:v>7.1228918430098207E-9</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.217169491127842E-10</c:v>
+                  <c:v>2.3439487262341431E-10</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1427160524946021E-10</c:v>
+                  <c:v>4.7519173540284592E-10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1859407753310304E-11</c:v>
+                  <c:v>1.1574455883219438E-12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>4.0020009075775909E-11</c:v>
+                  <c:v>1.1248207381497498E-12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6259,75 +6278,33 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>theta</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> = 0</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-GB"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.0344925634295714E-2"/>
+          <c:y val="3.8789080970887645E-2"/>
+          <c:w val="0.88254396325459317"/>
+          <c:h val="0.84175776454944551"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speed!$N$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -6338,84 +6315,138 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>black!$N$36:$N$44</c:f>
+              <c:f>speed!$M$67:$M$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>4.6051701859880918</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.2983173665480363</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.9914645471079817</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.6846117276679271</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.3777589082278725</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.0709060887878188</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7640532693477624</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>9.2103403719761836</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>11.512925464970229</c:v>
-                </c:pt>
+                <c:ptCount val="15"/>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>black!$O$36:$O$44</c:f>
+              <c:f>speed!$N$67:$N$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>-9.2055804217114066</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.6822611655727933</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-10.375768040629602</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-11.069395499831066</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-11.763383757810262</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-12.458154953433578</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-13.154527848933741</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-13.604448624093745</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-16.002357738818553</c:v>
-                </c:pt>
+                <c:ptCount val="15"/>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-701D-4892-8025-82394DC73BE6}"/>
+              <c16:uniqueId val="{00000000-6682-4261-93C8-0FCAE310706D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speed!$O$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>speed!$M$67:$M$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>speed!$O$67:$O$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6682-4261-93C8-0FCAE310706D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>speed!$P$66</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>speed!$M$67:$M$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>speed!$P$67:$P$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6682-4261-93C8-0FCAE310706D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6427,13 +6458,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="440818136"/>
-        <c:axId val="440820104"/>
+        <c:axId val="463007872"/>
+        <c:axId val="463012792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="440818136"/>
+        <c:axId val="463007872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -6488,12 +6520,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440820104"/>
+        <c:crossAx val="463012792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="440820104"/>
+        <c:axId val="463012792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6550,7 +6582,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="440818136"/>
+        <c:crossAx val="463007872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6562,6 +6594,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -7005,6 +7068,360 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> = 0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>black!$N$36:$N$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4.6051701859880918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2983173665480363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9914645471079817</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6846117276679271</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3777589082278725</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.0709060887878188</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.7640532693477624</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2103403719761836</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11.512925464970229</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>black!$O$36:$O$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-9.2055804217114066</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.6822611655727933</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-10.375768040629602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-11.069395499831066</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-11.763383757810262</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-12.458154953433578</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-13.154527848933741</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-13.604448624093745</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-16.002357738818553</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-701D-4892-8025-82394DC73BE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="440818136"/>
+        <c:axId val="440820104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="440818136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440820104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="440820104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="440818136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>theta</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
               <a:t> = 1</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
@@ -7356,7 +7773,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7741,7 +8158,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8400,7 +8817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8885,7 +9302,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -11412,157 +11829,157 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>8.222883472574153E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.88151826546097E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.8369582429900804E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.1403364534846359E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1333609946731457E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.6283840426211628E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0279506058811398E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3359705293968517E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.035296673075642E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1894768512870943E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.1647730321861788E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.5106535834520222E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.6588905124805369E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4608326853770915E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.144436259288049E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.0939524616335254E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6032380242673849E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2513525160319806E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.0317656955534931E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.9183474815318795E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.863174587646233E-2</c:v>
+                  <c:v>97.656250000000028</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.7994945580938519E-2</c:v>
+                  <c:v>-781.25000000000045</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.6477889577988267E-2</c:v>
+                  <c:v>2988.2812500000018</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>7.327148633019627E-2</c:v>
+                  <c:v>-7125.0000000000055</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.7668536039233432E-2</c:v>
+                  <c:v>11676.562500000011</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>7.9191832566065809E-2</c:v>
+                  <c:v>-13711.500000000015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.7668536039233446E-2</c:v>
+                  <c:v>11676.562500000011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>7.3271486330196284E-2</c:v>
+                  <c:v>-7125.0000000000045</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6477889577988281E-2</c:v>
+                  <c:v>2988.2812500000018</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.7994945580938533E-2</c:v>
+                  <c:v>-781.25000000000045</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.863174587646233E-2</c:v>
+                  <c:v>97.656250000000028</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.9183474815318781E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.0317656955534924E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2513525160319816E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.6032380242673852E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.093952461633526E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>7.1444362592880516E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4.4608326853770933E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.6588905124805377E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.5106535834520231E-3</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.1647730321861821E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.189476851287096E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.0352966730756433E-4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>9.3359705293968585E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4.0279506058811425E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.6283840426211642E-5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.1333609946731508E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1403364534846384E-6</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>6.8369582429900888E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.8815182654609732E-7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>8.2228834725741662E-8</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12784,6 +13201,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors25.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -21321,6 +21778,522 @@
 </file>
 
 <file path=xl/charts/style24.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style25.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -25679,6 +26652,43 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129394</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>90576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>431320</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>25880</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>232913</xdr:colOff>
       <xdr:row>47</xdr:row>
@@ -25838,7 +26848,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -26526,7 +27536,7 @@
   <dimension ref="B2:N72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -28687,7 +29697,7 @@
   <dimension ref="A2:Q168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -31266,7 +32276,7 @@
   <dimension ref="A2:P168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -33411,6 +34421,1887 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P168"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="24.75" customWidth="1"/>
+    <col min="11" max="11" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="29"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I17" s="33">
+        <f ca="1">11.13/(10000*400)</f>
+        <v>2.7825E-6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I18" s="33">
+        <f ca="1">15.95/(400*10000)</f>
+        <v>3.9874999999999995E-6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="33">
+        <f ca="1">27.03/(400*10000)</f>
+        <v>6.7575000000000001E-6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="13">
+        <v>10</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>50</v>
+      </c>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21" s="12"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22" s="33">
+        <f ca="1">3.61/(400*10000)</f>
+        <v>9.0249999999999994E-7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="H23" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I23" s="34">
+        <f ca="1">8.49/(400*10000)</f>
+        <v>2.1225E-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H24" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="34">
+        <f ca="1">12.07/(400*10000)</f>
+        <v>3.0174999999999999E-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="10">
+        <f ca="1">NOW()</f>
+        <v>45069.51401053241</v>
+      </c>
+      <c r="B25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="11">
+        <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <f ca="1">EXP(-C4*C9)</f>
+        <v>0.97044553354850815</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="str">
+        <f t="array" aca="1" ref="B28:C168" ca="1">_xll.xBachelierFd(C3:C6,C9:C14,C17:C23)</f>
+        <v>res 0</v>
+      </c>
+      <c r="C28" s="7">
+        <f ca="1"/>
+        <v>1.2719410640791014E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28">
+        <f ca="1">C3+C5*C9</f>
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="C29" s="7" t="str">
+        <f ca="1"/>
+        <v/>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="9">
+        <f ca="1">_xll.xBachelierCall(C9,C10,F28,C6)*F27</f>
+        <v>1.2729034959835531E-2</v>
+      </c>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="12"/>
+      <c r="P29" s="12"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="str">
+        <f ca="1"/>
+        <v>s</v>
+      </c>
+      <c r="C30" s="7" t="str">
+        <f ca="1"/>
+        <v>res</v>
+      </c>
+      <c r="H30" s="18"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="7">
+        <f ca="1"/>
+        <v>-0.5</v>
+      </c>
+      <c r="C31" s="7">
+        <f ca="1"/>
+        <v>-1.8729501358741802E-10</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <f ca="1">_xll.xBachelierImplied(C9,C10,C28/F27,F28)</f>
+        <v>9.9967063735189557E-2</v>
+      </c>
+      <c r="H31" s="18"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="7">
+        <f ca="1"/>
+        <v>-0.48</v>
+      </c>
+      <c r="C32" s="7">
+        <f ca="1"/>
+        <v>1.0548705188763338E-9</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="15"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="7">
+        <f ca="1"/>
+        <v>-0.45999999999999996</v>
+      </c>
+      <c r="C33" s="7">
+        <f ca="1"/>
+        <v>3.2761612380516932E-9</v>
+      </c>
+      <c r="G33" s="3"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="7">
+        <f ca="1"/>
+        <v>-0.43999999999999995</v>
+      </c>
+      <c r="C34" s="7">
+        <f ca="1"/>
+        <v>8.2848453766950744E-9</v>
+      </c>
+      <c r="G34" s="3"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="7">
+        <f ca="1"/>
+        <v>-0.41999999999999993</v>
+      </c>
+      <c r="C35" s="7">
+        <f ca="1"/>
+        <v>2.0065408234591094E-8</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B36" s="7">
+        <f ca="1"/>
+        <v>-0.39999999999999991</v>
+      </c>
+      <c r="C36" s="7">
+        <f ca="1"/>
+        <v>4.7643575402323484E-8</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="7">
+        <f ca="1"/>
+        <v>-0.37999999999999989</v>
+      </c>
+      <c r="C37" s="7">
+        <f ca="1"/>
+        <v>1.1126150038835927E-7</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="7">
+        <f ca="1"/>
+        <v>-0.35999999999999988</v>
+      </c>
+      <c r="C38" s="7">
+        <f ca="1"/>
+        <v>2.5546464791532795E-7</v>
+      </c>
+      <c r="G38" s="3"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="7">
+        <f ca="1"/>
+        <v>-0.33999999999999986</v>
+      </c>
+      <c r="C39" s="7">
+        <f ca="1"/>
+        <v>5.7613849261311025E-7</v>
+      </c>
+      <c r="G39" s="3"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="7">
+        <f ca="1"/>
+        <v>-0.31999999999999984</v>
+      </c>
+      <c r="C40" s="7">
+        <f ca="1"/>
+        <v>1.2747404931243909E-6</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="7">
+        <f ca="1"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="C41" s="7">
+        <f ca="1"/>
+        <v>2.7635704582255127E-6</v>
+      </c>
+      <c r="G41" s="3"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="7">
+        <f ca="1"/>
+        <v>-0.2799999999999998</v>
+      </c>
+      <c r="C42" s="7">
+        <f ca="1"/>
+        <v>5.8628371565769816E-6</v>
+      </c>
+      <c r="G42" s="3"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="7">
+        <f ca="1"/>
+        <v>-0.25999999999999979</v>
+      </c>
+      <c r="C43" s="7">
+        <f ca="1"/>
+        <v>1.2155094543165876E-5</v>
+      </c>
+      <c r="G43" s="3"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <f ca="1"/>
+        <v>-0.2399999999999998</v>
+      </c>
+      <c r="C44" s="7">
+        <f ca="1"/>
+        <v>2.4595156298676513E-5</v>
+      </c>
+      <c r="G44" s="3"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <f ca="1"/>
+        <v>-0.21999999999999981</v>
+      </c>
+      <c r="C45" s="7">
+        <f ca="1"/>
+        <v>4.8509621335901945E-5</v>
+      </c>
+      <c r="G45" s="3"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <f ca="1"/>
+        <v>-0.19999999999999982</v>
+      </c>
+      <c r="C46" s="7">
+        <f ca="1"/>
+        <v>9.3148714493652268E-5</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="21"/>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" s="7">
+        <f ca="1"/>
+        <v>-0.17999999999999983</v>
+      </c>
+      <c r="C47" s="7">
+        <f ca="1"/>
+        <v>1.7395494825578261E-4</v>
+      </c>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f ca="1"/>
+        <v>-0.15999999999999984</v>
+      </c>
+      <c r="C48">
+        <f ca="1"/>
+        <v>3.1566177939192758E-4</v>
+      </c>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f ca="1"/>
+        <v>-0.13999999999999985</v>
+      </c>
+      <c r="C49">
+        <f ca="1"/>
+        <v>5.5620379416887196E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <f ca="1"/>
+        <v>-0.11999999999999984</v>
+      </c>
+      <c r="C50">
+        <f ca="1"/>
+        <v>9.511928331645274E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f ca="1"/>
+        <v>-9.9999999999999839E-2</v>
+      </c>
+      <c r="C51">
+        <f ca="1"/>
+        <v>1.5784081846251423E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f ca="1"/>
+        <v>-7.9999999999999835E-2</v>
+      </c>
+      <c r="C52">
+        <f ca="1"/>
+        <v>2.5414228417462072E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f ca="1"/>
+        <v>-5.9999999999999831E-2</v>
+      </c>
+      <c r="C53">
+        <f ca="1"/>
+        <v>3.9712173236311279E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f ca="1"/>
+        <v>-3.9999999999999827E-2</v>
+      </c>
+      <c r="C54">
+        <f ca="1"/>
+        <v>6.0245593423001479E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f ca="1"/>
+        <v>-1.9999999999999827E-2</v>
+      </c>
+      <c r="C55">
+        <f ca="1"/>
+        <v>8.8784308235748052E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f ca="1"/>
+        <v>1.7347234759768071E-16</v>
+      </c>
+      <c r="C56">
+        <f ca="1"/>
+        <v>1.2719410640791014E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f ca="1"/>
+        <v>2.0000000000000174E-2</v>
+      </c>
+      <c r="C57">
+        <f ca="1"/>
+        <v>1.7730412335336596E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f ca="1"/>
+        <v>4.0000000000000174E-2</v>
+      </c>
+      <c r="C58">
+        <f ca="1"/>
+        <v>2.4072807448706171E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f ca="1"/>
+        <v>6.0000000000000178E-2</v>
+      </c>
+      <c r="C59">
+        <f ca="1"/>
+        <v>3.1871857263153426E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f ca="1"/>
+        <v>8.0000000000000182E-2</v>
+      </c>
+      <c r="C60">
+        <f ca="1"/>
+        <v>4.1200770444540048E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f ca="1"/>
+        <v>0.10000000000000019</v>
+      </c>
+      <c r="C61">
+        <f ca="1"/>
+        <v>5.2074325910992481E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <f ca="1"/>
+        <v>0.12000000000000019</v>
+      </c>
+      <c r="C62">
+        <f ca="1"/>
+        <v>6.4445464214811704E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <f ca="1"/>
+        <v>0.14000000000000018</v>
+      </c>
+      <c r="C63">
+        <f ca="1"/>
+        <v>7.8211941794565684E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f ca="1"/>
+        <v>0.16000000000000017</v>
+      </c>
+      <c r="C64">
+        <f ca="1"/>
+        <v>9.32273793948111E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <f ca="1"/>
+        <v>0.18000000000000016</v>
+      </c>
+      <c r="C65">
+        <f ca="1"/>
+        <v>0.10931701571750016</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <f ca="1"/>
+        <v>0.20000000000000015</v>
+      </c>
+      <c r="C66">
+        <f ca="1"/>
+        <v>0.12629454588899275</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <f ca="1"/>
+        <v>0.22000000000000014</v>
+      </c>
+      <c r="C67">
+        <f ca="1"/>
+        <v>0.14397749614006652</v>
+      </c>
+      <c r="G67" s="20"/>
+      <c r="H67" s="23"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="21"/>
+      <c r="K67" s="21"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <f ca="1"/>
+        <v>0.24000000000000013</v>
+      </c>
+      <c r="C68">
+        <f ca="1"/>
+        <v>0.16219934300139055</v>
+      </c>
+      <c r="H68" s="23"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="21"/>
+      <c r="K68" s="21"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <f ca="1"/>
+        <v>0.26000000000000012</v>
+      </c>
+      <c r="C69">
+        <f ca="1"/>
+        <v>0.18081722439609837</v>
+      </c>
+      <c r="H69" s="23"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="21"/>
+      <c r="K69" s="21"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <f ca="1"/>
+        <v>0.28000000000000014</v>
+      </c>
+      <c r="C70">
+        <f ca="1"/>
+        <v>0.19971526421063426</v>
+      </c>
+      <c r="H70" s="23"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="21"/>
+      <c r="K70" s="21"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <f ca="1"/>
+        <v>0.30000000000000016</v>
+      </c>
+      <c r="C71">
+        <f ca="1"/>
+        <v>0.21880423620767836</v>
+      </c>
+      <c r="H71" s="23"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="21"/>
+      <c r="K71" s="21"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <f ca="1"/>
+        <v>0.32000000000000017</v>
+      </c>
+      <c r="C72">
+        <f ca="1"/>
+        <v>0.2380186990104268</v>
+      </c>
+      <c r="H72" s="23"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="21"/>
+      <c r="K72" s="21"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <f ca="1"/>
+        <v>0.34000000000000019</v>
+      </c>
+      <c r="C73">
+        <f ca="1"/>
+        <v>0.25731280472279527</v>
+      </c>
+      <c r="H73" s="23"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="21"/>
+      <c r="K73" s="21"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <f ca="1"/>
+        <v>0.36000000000000021</v>
+      </c>
+      <c r="C74">
+        <f ca="1"/>
+        <v>0.27665578897738963</v>
+      </c>
+      <c r="H74" s="23"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="21"/>
+      <c r="K74" s="21"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <f ca="1"/>
+        <v>0.38000000000000023</v>
+      </c>
+      <c r="C75">
+        <f ca="1"/>
+        <v>0.29602782881297268</v>
+      </c>
+      <c r="H75" s="23"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="21"/>
+      <c r="K75" s="21"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <f ca="1"/>
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="C76">
+        <f ca="1"/>
+        <v>0.31541662653687241</v>
+      </c>
+      <c r="H76" s="23"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="21"/>
+      <c r="K76" s="21"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <f ca="1"/>
+        <v>0.42000000000000026</v>
+      </c>
+      <c r="C77">
+        <f ca="1"/>
+        <v>0.3348148165466287</v>
+      </c>
+      <c r="H77" s="23"/>
+      <c r="I77" s="22"/>
+      <c r="J77" s="21"/>
+      <c r="K77" s="21"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <f ca="1"/>
+        <v>0.44000000000000028</v>
+      </c>
+      <c r="C78">
+        <f ca="1"/>
+        <v>0.35421812580824985</v>
+      </c>
+      <c r="H78" s="23"/>
+      <c r="I78" s="22"/>
+      <c r="J78" s="21"/>
+      <c r="K78" s="21"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <f ca="1"/>
+        <v>0.4600000000000003</v>
+      </c>
+      <c r="C79">
+        <f ca="1"/>
+        <v>0.3736241399168938</v>
+      </c>
+      <c r="H79" s="23"/>
+      <c r="I79" s="22"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <f ca="1"/>
+        <v>0.48000000000000032</v>
+      </c>
+      <c r="C80">
+        <f ca="1"/>
+        <v>0.39303150946900489</v>
+      </c>
+      <c r="H80" s="23"/>
+      <c r="I80" s="22"/>
+      <c r="J80" s="21"/>
+      <c r="K80" s="21"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <f ca="1"/>
+        <v>0.50000000000000033</v>
+      </c>
+      <c r="C81">
+        <f ca="1"/>
+        <v>0.41243944649109909</v>
+      </c>
+      <c r="H81" s="23"/>
+      <c r="I81" s="22"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C82" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H82" s="23"/>
+      <c r="I82" s="21"/>
+      <c r="J82" s="21"/>
+      <c r="K82" s="21"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C83" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H83" s="18"/>
+      <c r="I83" s="21"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C84" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C85" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C86" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C87" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C88" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C89" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C90" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C91" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C92" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C93" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C94" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C95" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C96" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C97" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C98" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C99" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C100" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C101" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C102" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C103" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C104" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C105" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C106" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C107" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C108" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C109" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C110" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C111" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C112" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C113" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C114" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C115" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C116" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C117" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C118" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C119" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C120" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C121" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C122" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C123" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C124" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C125" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C126" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C127" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C128" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C129" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C130" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C131" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C132" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C133" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C134" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C135" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C136" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C137" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C138" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C139" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C140" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C141" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C142" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C143" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C144" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C145" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C146" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C147" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C148" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C149" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C150" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C151" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C152" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C153" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C154" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C155" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C156" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C157" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C158" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C159" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C160" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C161" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C162" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C163" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C164" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C165" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C166" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C167" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="C168" t="e">
+        <f ca="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q168"/>
   <sheetViews>
@@ -33703,14 +36594,14 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f ca="1">NOW()</f>
-        <v>44917.486056481481</v>
+        <v>45069.475764120369</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
       </c>
       <c r="C25" s="11">
         <f ca="1">IF(B28&lt;&gt;"",NOW()-A25)</f>
-        <v>14.099405324071995</v>
+        <v>1.1574593372642994E-7</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -36108,12 +38999,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -38312,7 +41203,7 @@
   <dimension ref="B2:Q72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23:Q32"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -41540,7 +44431,7 @@
   <dimension ref="B2:P72"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G83" sqref="G83"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -41712,7 +44603,7 @@
         <v>19</v>
       </c>
       <c r="L20" s="2">
-        <f>SUMPRODUCT(L22:L72,F22:F72)</f>
+        <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
         <v>1.1438274178992767E-2</v>
       </c>
     </row>
@@ -41761,11 +44652,11 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <f t="array" ref="H22:H72">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19)</f>
+        <f t="array" aca="1" ref="H22:H72" ca="1">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,F22:F72,C15:C19)</f>
         <v>0</v>
       </c>
       <c r="I22">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H22,B22+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H22,B22+$C$5*$C$2)</f>
         <v>0</v>
       </c>
       <c r="K22">
@@ -41773,11 +44664,11 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <f t="array" ref="L22:L72">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19)</f>
+        <f t="array" aca="1" ref="L22:L72" ca="1">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19)</f>
         <v>2.104909972237949E-6</v>
       </c>
       <c r="P22">
-        <f>I47</f>
+        <f ca="1">I47</f>
         <v>9.9545451956920591E-2</v>
       </c>
     </row>
@@ -41803,10 +44694,11 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <f ca="1"/>
         <v>3.9865306324707893E-9</v>
       </c>
       <c r="I23">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H23,B23+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H23,B23+$C$5*$C$2)</f>
         <v>0.10537310467583533</v>
       </c>
       <c r="K23">
@@ -41814,6 +44706,7 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <f ca="1"/>
         <v>1.4492778033349133E-6</v>
       </c>
       <c r="O23" t="s">
@@ -41845,10 +44738,11 @@
         <v>0</v>
       </c>
       <c r="H24">
+        <f ca="1"/>
         <v>1.092356423920191E-8</v>
       </c>
       <c r="I24">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H24,B24+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H24,B24+$C$5*$C$2)</f>
         <v>0.10545156046798422</v>
       </c>
       <c r="K24">
@@ -41856,6 +44750,7 @@
         <v>0</v>
       </c>
       <c r="L24">
+        <f ca="1"/>
         <v>3.7897937387938969E-6</v>
       </c>
       <c r="O24">
@@ -41887,10 +44782,11 @@
         <v>0</v>
       </c>
       <c r="H25">
+        <f ca="1"/>
         <v>2.5753903423226787E-8</v>
       </c>
       <c r="I25">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H25,B25+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H25,B25+$C$5*$C$2)</f>
         <v>0.10502091909670874</v>
       </c>
       <c r="K25">
@@ -41898,6 +44794,7 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <f ca="1"/>
         <v>8.3795004369837588E-6</v>
       </c>
       <c r="O25">
@@ -41929,10 +44826,11 @@
         <v>0</v>
       </c>
       <c r="H26">
+        <f ca="1"/>
         <v>5.8592857526887155E-8</v>
       </c>
       <c r="I26">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H26,B26+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H26,B26+$C$5*$C$2)</f>
         <v>0.10451868339010999</v>
       </c>
       <c r="K26">
@@ -41940,6 +44838,7 @@
         <v>0</v>
       </c>
       <c r="L26">
+        <f ca="1"/>
         <v>1.7697984571565695E-5</v>
       </c>
       <c r="O26">
@@ -41971,10 +44870,11 @@
         <v>0</v>
       </c>
       <c r="H27">
+        <f ca="1"/>
         <v>1.3087291521045878E-7</v>
       </c>
       <c r="I27">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H27,B27+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H27,B27+$C$5*$C$2)</f>
         <v>0.10401958752334878</v>
       </c>
       <c r="K27">
@@ -41982,6 +44882,7 @@
         <v>0</v>
       </c>
       <c r="L27">
+        <f ca="1"/>
         <v>3.6419599908090067E-5</v>
       </c>
       <c r="O27">
@@ -42013,10 +44914,11 @@
         <v>0</v>
       </c>
       <c r="H28">
+        <f ca="1"/>
         <v>2.8761608130413062E-7</v>
       </c>
       <c r="I28">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H28,B28+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H28,B28+$C$5*$C$2)</f>
         <v>0.10353909891669505</v>
       </c>
       <c r="K28">
@@ -42024,6 +44926,7 @@
         <v>0</v>
       </c>
       <c r="L28">
+        <f ca="1"/>
         <v>7.3210001548433757E-5</v>
       </c>
       <c r="O28">
@@ -42055,10 +44958,11 @@
         <v>0</v>
       </c>
       <c r="H29">
+        <f ca="1"/>
         <v>6.2162466672943186E-7</v>
       </c>
       <c r="I29">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H29,B29+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H29,B29+$C$5*$C$2)</f>
         <v>0.103081769961308</v>
       </c>
       <c r="K29">
@@ -42066,6 +44970,7 @@
         <v>0</v>
       </c>
       <c r="L29">
+        <f ca="1"/>
         <v>1.4363451207129266E-4</v>
       </c>
       <c r="O29">
@@ -42097,10 +45002,11 @@
         <v>0</v>
       </c>
       <c r="H30">
+        <f ca="1"/>
         <v>1.3199498645766735E-6</v>
       </c>
       <c r="I30">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H30,B30+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H30,B30+$C$5*$C$2)</f>
         <v>0.1026500597102349</v>
       </c>
       <c r="K30">
@@ -42108,6 +45014,7 @@
         <v>0</v>
       </c>
       <c r="L30">
+        <f ca="1"/>
         <v>2.7460099438852108E-4</v>
       </c>
       <c r="O30">
@@ -42139,10 +45046,11 @@
         <v>0</v>
       </c>
       <c r="H31">
+        <f ca="1"/>
         <v>2.7504254517955232E-6</v>
       </c>
       <c r="I31">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H31,B31+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H31,B31+$C$5*$C$2)</f>
         <v>0.10224593548148625</v>
       </c>
       <c r="K31">
@@ -42150,6 +45058,7 @@
         <v>0</v>
       </c>
       <c r="L31">
+        <f ca="1"/>
         <v>5.1064246632828421E-4</v>
       </c>
       <c r="O31">
@@ -42181,10 +45090,11 @@
         <v>0</v>
       </c>
       <c r="H32">
+        <f ca="1"/>
         <v>5.6172669782505835E-6</v>
       </c>
       <c r="I32">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H32,B32+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H32,B32+$C$5*$C$2)</f>
         <v>0.10187109896998565</v>
       </c>
       <c r="K32">
@@ -42192,6 +45102,7 @@
         <v>0</v>
       </c>
       <c r="L32">
+        <f ca="1"/>
         <v>9.2193160389730225E-4</v>
       </c>
       <c r="O32">
@@ -42223,10 +45134,11 @@
         <v>0</v>
       </c>
       <c r="H33">
+        <f ca="1"/>
         <v>1.1230126967909933E-5</v>
       </c>
       <c r="I33">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H33,B33+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H33,B33+$C$5*$C$2)</f>
         <v>0.10152693678911341</v>
       </c>
       <c r="K33">
@@ -42234,6 +45146,7 @@
         <v>0</v>
       </c>
       <c r="L33">
+        <f ca="1"/>
         <v>1.6130738870245827E-3</v>
       </c>
       <c r="O33">
@@ -42265,10 +45178,11 @@
         <v>0</v>
       </c>
       <c r="H34">
+        <f ca="1"/>
         <v>2.1949415074863128E-5</v>
       </c>
       <c r="I34">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H34,B34+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H34,B34+$C$5*$C$2)</f>
         <v>0.10121441181464275</v>
       </c>
       <c r="K34">
@@ -42276,6 +45190,7 @@
         <v>0</v>
       </c>
       <c r="L34">
+        <f ca="1"/>
         <v>2.7304288659927042E-3</v>
       </c>
       <c r="O34" s="5">
@@ -42307,10 +45222,11 @@
         <v>0</v>
       </c>
       <c r="H35">
+        <f ca="1"/>
         <v>4.1888020608948287E-5</v>
       </c>
       <c r="I35">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H35,B35+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H35,B35+$C$5*$C$2)</f>
         <v>0.10093395063087696</v>
       </c>
       <c r="K35">
@@ -42318,6 +45234,7 @@
         <v>0</v>
       </c>
       <c r="L35">
+        <f ca="1"/>
         <v>4.4641976709112012E-3</v>
       </c>
       <c r="O35">
@@ -42349,10 +45266,11 @@
         <v>0</v>
       </c>
       <c r="H36">
+        <f ca="1"/>
         <v>7.795736556658552E-5</v>
       </c>
       <c r="I36">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H36,B36+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H36,B36+$C$5*$C$2)</f>
         <v>0.10068535794208341</v>
       </c>
       <c r="K36">
@@ -42360,6 +45278,7 @@
         <v>0</v>
       </c>
       <c r="L36">
+        <f ca="1"/>
         <v>7.0403558000658416E-3</v>
       </c>
       <c r="O36">
@@ -42391,10 +45310,11 @@
         <v>0</v>
       </c>
       <c r="H37">
+        <f ca="1"/>
         <v>1.4133099940297653E-4</v>
       </c>
       <c r="I37">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H37,B37+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H37,B37+$C$5*$C$2)</f>
         <v>0.10046778620488112</v>
       </c>
       <c r="K37">
@@ -42402,6 +45322,7 @@
         <v>0</v>
       </c>
       <c r="L37">
+        <f ca="1"/>
         <v>1.0697518082355447E-2</v>
       </c>
       <c r="O37">
@@ -42433,10 +45354,11 @@
         <v>0</v>
       </c>
       <c r="H38">
+        <f ca="1"/>
         <v>2.4934661003438613E-4</v>
       </c>
       <c r="I38">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H38,B38+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H38,B38+$C$5*$C$2)</f>
         <v>0.10027977978753357</v>
       </c>
       <c r="K38">
@@ -42444,6 +45366,7 @@
         <v>0</v>
       </c>
       <c r="L38">
+        <f ca="1"/>
         <v>1.5645924431951952E-2</v>
       </c>
       <c r="O38">
@@ -42475,10 +45398,11 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <f ca="1"/>
         <v>4.2776577869994408E-4</v>
       </c>
       <c r="I39">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H39,B39+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H39,B39+$C$5*$C$2)</f>
         <v>0.10011938845894798</v>
       </c>
       <c r="K39">
@@ -42486,6 +45410,7 @@
         <v>0</v>
       </c>
       <c r="L39">
+        <f ca="1"/>
         <v>2.2010718069809636E-2</v>
       </c>
       <c r="O39">
@@ -42517,10 +45442,11 @@
         <v>0</v>
       </c>
       <c r="H40">
+        <f ca="1"/>
         <v>7.1316012820202583E-4</v>
       </c>
       <c r="I40">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H40,B40+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H40,B40+$C$5*$C$2)</f>
         <v>9.9984313545450065E-2</v>
       </c>
       <c r="K40">
@@ -42528,6 +45454,7 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <f ca="1"/>
         <v>2.9768509679582864E-2</v>
       </c>
       <c r="O40">
@@ -42559,10 +45486,11 @@
         <v>0</v>
       </c>
       <c r="H41">
+        <f ca="1"/>
         <v>1.1550137220286191E-3</v>
       </c>
       <c r="I41">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H41,B41+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H41,B41+$C$5*$C$2)</f>
         <v>9.9872047475295572E-2</v>
       </c>
       <c r="K41">
@@ -42570,6 +45498,7 @@
         <v>0</v>
       </c>
       <c r="L41">
+        <f ca="1"/>
         <v>3.8689780094210598E-2</v>
       </c>
       <c r="O41">
@@ -42601,10 +45530,11 @@
         <v>0</v>
       </c>
       <c r="H42">
+        <f ca="1"/>
         <v>1.8169744965552187E-3</v>
       </c>
       <c r="I42">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H42,B42+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H42,B42+$C$5*$C$2)</f>
         <v>9.9780024764101388E-2</v>
       </c>
       <c r="K42">
@@ -42612,6 +45542,7 @@
         <v>0</v>
       </c>
       <c r="L42">
+        <f ca="1"/>
         <v>4.8305736549606654E-2</v>
       </c>
       <c r="O42">
@@ -42643,10 +45574,11 @@
         <v>0</v>
       </c>
       <c r="H43">
+        <f ca="1"/>
         <v>2.7766203678783741E-3</v>
       </c>
       <c r="I43">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H43,B43+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H43,B43+$C$5*$C$2)</f>
         <v>9.970582069758431E-2</v>
       </c>
       <c r="K43">
@@ -42654,6 +45586,7 @@
         <v>0</v>
       </c>
       <c r="L43">
+        <f ca="1"/>
         <v>5.7949734119718675E-2</v>
       </c>
       <c r="O43">
@@ -42685,10 +45618,11 @@
         <v>0</v>
       </c>
       <c r="H44">
+        <f ca="1"/>
         <v>4.1231640401439111E-3</v>
       </c>
       <c r="I44">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H44,B44+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H44,B44+$C$5*$C$2)</f>
         <v>9.9647189011235107E-2</v>
       </c>
       <c r="K44">
@@ -42696,6 +45630,7 @@
         <v>0</v>
       </c>
       <c r="L44">
+        <f ca="1"/>
         <v>6.6731234316927332E-2</v>
       </c>
       <c r="O44">
@@ -42727,10 +45662,11 @@
         <v>0</v>
       </c>
       <c r="H45">
+        <f ca="1"/>
         <v>5.9527650779056182E-3</v>
       </c>
       <c r="I45">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H45,B45+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H45,B45+$C$5*$C$2)</f>
         <v>9.9601850149610607E-2</v>
       </c>
       <c r="K45">
@@ -42738,6 +45674,7 @@
         <v>0</v>
       </c>
       <c r="L45">
+        <f ca="1"/>
         <v>7.3873296094350963E-2</v>
       </c>
     </row>
@@ -42763,10 +45700,11 @@
         <v>0</v>
       </c>
       <c r="H46">
+        <f ca="1"/>
         <v>8.361863456864552E-3</v>
       </c>
       <c r="I46">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H46,B46+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H46,B46+$C$5*$C$2)</f>
         <v>9.9568884729626675E-2</v>
       </c>
       <c r="K46">
@@ -42774,6 +45712,7 @@
         <v>0</v>
       </c>
       <c r="L46">
+        <f ca="1"/>
         <v>7.8433110583458282E-2</v>
       </c>
     </row>
@@ -42799,10 +45738,11 @@
         <v>0</v>
       </c>
       <c r="H47" s="1">
+        <f ca="1"/>
         <v>1.143827417899277E-2</v>
       </c>
       <c r="I47">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H47,B47+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H47,B47+$C$5*$C$2)</f>
         <v>9.9545451956920591E-2</v>
       </c>
       <c r="K47">
@@ -42810,6 +45750,7 @@
         <v>1</v>
       </c>
       <c r="L47">
+        <f ca="1"/>
         <v>8.0105042218738459E-2</v>
       </c>
     </row>
@@ -42835,10 +45776,11 @@
         <v>0</v>
       </c>
       <c r="H48">
+        <f ca="1"/>
         <v>1.5253417862064498E-2</v>
       </c>
       <c r="I48">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H48,B48+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H48,B48+$C$5*$C$2)</f>
         <v>9.9532928230937429E-2</v>
       </c>
       <c r="K48">
@@ -42846,6 +45788,7 @@
         <v>0</v>
       </c>
       <c r="L48">
+        <f ca="1"/>
         <v>7.843311058345831E-2</v>
       </c>
     </row>
@@ -42871,10 +45814,11 @@
         <v>8.6736173798840355E-17</v>
       </c>
       <c r="H49">
+        <f ca="1"/>
         <v>1.9852892650970795E-2</v>
       </c>
       <c r="I49">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H49,B49+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H49,B49+$C$5*$C$2)</f>
         <v>9.952764410427449E-2</v>
       </c>
       <c r="K49">
@@ -42882,6 +45826,7 @@
         <v>0</v>
       </c>
       <c r="L49">
+        <f ca="1"/>
         <v>7.3873296094350976E-2</v>
       </c>
     </row>
@@ -42907,10 +45852,11 @@
         <v>1.0000000000000089E-2</v>
       </c>
       <c r="H50">
+        <f ca="1"/>
         <v>2.5253417862064434E-2</v>
       </c>
       <c r="I50">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H50,B50+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H50,B50+$C$5*$C$2)</f>
         <v>9.9532928230937012E-2</v>
       </c>
       <c r="K50">
@@ -42918,6 +45864,7 @@
         <v>0</v>
       </c>
       <c r="L50">
+        <f ca="1"/>
         <v>6.673123431692736E-2</v>
       </c>
     </row>
@@ -42943,10 +45890,11 @@
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="H51">
+        <f ca="1"/>
         <v>3.1438274178992559E-2</v>
       </c>
       <c r="I51">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H51,B51+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H51,B51+$C$5*$C$2)</f>
         <v>9.9545451956919287E-2</v>
       </c>
       <c r="K51">
@@ -42954,6 +45902,7 @@
         <v>0</v>
       </c>
       <c r="L51">
+        <f ca="1"/>
         <v>5.7949734119718668E-2</v>
       </c>
     </row>
@@ -42979,10 +45928,11 @@
         <v>3.0000000000000093E-2</v>
       </c>
       <c r="H52">
+        <f ca="1"/>
         <v>3.8361863456863911E-2</v>
       </c>
       <c r="I52">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H52,B52+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H52,B52+$C$5*$C$2)</f>
         <v>9.9568884729622581E-2</v>
       </c>
       <c r="K52">
@@ -42990,6 +45940,7 @@
         <v>0</v>
       </c>
       <c r="L52">
+        <f ca="1"/>
         <v>4.8305736549606654E-2</v>
       </c>
     </row>
@@ -43015,10 +45966,11 @@
         <v>4.0000000000000091E-2</v>
       </c>
       <c r="H53">
+        <f ca="1"/>
         <v>4.5952765077903808E-2</v>
       </c>
       <c r="I53">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H53,B53+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H53,B53+$C$5*$C$2)</f>
         <v>9.9601850149597743E-2</v>
       </c>
       <c r="K53">
@@ -43026,6 +45978,7 @@
         <v>0</v>
       </c>
       <c r="L53">
+        <f ca="1"/>
         <v>3.8689780094210591E-2</v>
       </c>
     </row>
@@ -43051,10 +46004,11 @@
         <v>5.0000000000000086E-2</v>
       </c>
       <c r="H54">
+        <f ca="1"/>
         <v>5.4123164040138991E-2</v>
       </c>
       <c r="I54">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H54,B54+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H54,B54+$C$5*$C$2)</f>
         <v>9.9647189011193793E-2</v>
       </c>
       <c r="K54">
@@ -43062,6 +46016,7 @@
         <v>0</v>
       </c>
       <c r="L54">
+        <f ca="1"/>
         <v>2.9768509679582864E-2</v>
       </c>
     </row>
@@ -43087,10 +46042,11 @@
         <v>6.0000000000000081E-2</v>
       </c>
       <c r="H55">
+        <f ca="1"/>
         <v>6.2776620367865243E-2</v>
       </c>
       <c r="I55">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H55,B55+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H55,B55+$C$5*$C$2)</f>
         <v>9.970582069744785E-2</v>
       </c>
       <c r="K55">
@@ -43098,6 +46054,7 @@
         <v>0</v>
       </c>
       <c r="L55">
+        <f ca="1"/>
         <v>2.2010718069809657E-2</v>
       </c>
     </row>
@@ -43123,10 +46080,11 @@
         <v>7.0000000000000076E-2</v>
       </c>
       <c r="H56">
+        <f ca="1"/>
         <v>7.1816974496520636E-2</v>
       </c>
       <c r="I56">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H56,B56+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H56,B56+$C$5*$C$2)</f>
         <v>9.9780024763636496E-2</v>
       </c>
       <c r="K56">
@@ -43134,6 +46092,7 @@
         <v>0</v>
       </c>
       <c r="L56">
+        <f ca="1"/>
         <v>1.5645924431951966E-2</v>
       </c>
     </row>
@@ -43159,10 +46118,11 @@
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="H57">
+        <f ca="1"/>
         <v>8.1155013721938354E-2</v>
       </c>
       <c r="I57">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H57,B57+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H57,B57+$C$5*$C$2)</f>
         <v>9.9872047473661379E-2</v>
       </c>
       <c r="K57">
@@ -43170,6 +46130,7 @@
         <v>0</v>
       </c>
       <c r="L57">
+        <f ca="1"/>
         <v>1.0697518082355459E-2</v>
       </c>
     </row>
@@ -43195,10 +46156,11 @@
         <v>9.0000000000000066E-2</v>
       </c>
       <c r="H58">
+        <f ca="1"/>
         <v>9.0713160127968262E-2</v>
       </c>
       <c r="I58">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H58,B58+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H58,B58+$C$5*$C$2)</f>
         <v>9.9984313539523736E-2</v>
       </c>
       <c r="K58">
@@ -43206,6 +46168,7 @@
         <v>0</v>
       </c>
       <c r="L58">
+        <f ca="1"/>
         <v>7.0403558000658494E-3</v>
       </c>
     </row>
@@ -43231,10 +46194,11 @@
         <v>0.10000000000000006</v>
       </c>
       <c r="H59">
+        <f ca="1"/>
         <v>0.10042776577809884</v>
       </c>
       <c r="I59">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H59,B59+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H59,B59+$C$5*$C$2)</f>
         <v>0.10011938843678544</v>
       </c>
       <c r="K59">
@@ -43242,6 +46206,7 @@
         <v>0</v>
       </c>
       <c r="L59">
+        <f ca="1"/>
         <v>4.4641976709112073E-3</v>
       </c>
     </row>
@@ -43267,10 +46232,11 @@
         <v>0.11000000000000006</v>
       </c>
       <c r="H60">
+        <f ca="1"/>
         <v>0.11024934660849967</v>
       </c>
       <c r="I60">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H60,B60+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H60,B60+$C$5*$C$2)</f>
         <v>0.10027977970216406</v>
       </c>
       <c r="K60">
@@ -43278,6 +46244,7 @@
         <v>0</v>
       </c>
       <c r="L60">
+        <f ca="1"/>
         <v>2.7304288659927073E-3</v>
       </c>
     </row>
@@ -43303,10 +46270,11 @@
         <v>0.12000000000000006</v>
       </c>
       <c r="H61">
+        <f ca="1"/>
         <v>0.12014133099551302</v>
       </c>
       <c r="I61">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H61,B61+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H61,B61+$C$5*$C$2)</f>
         <v>0.10046778586664572</v>
       </c>
       <c r="K61">
@@ -43314,6 +46282,7 @@
         <v>0</v>
       </c>
       <c r="L61">
+        <f ca="1"/>
         <v>1.6130738870245847E-3</v>
       </c>
     </row>
@@ -43339,10 +46308,11 @@
         <v>0.13000000000000009</v>
       </c>
       <c r="H62">
+        <f ca="1"/>
         <v>0.13007795735578148</v>
       </c>
       <c r="I62">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H62,B62+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H62,B62+$C$5*$C$2)</f>
         <v>0.10068535656585807</v>
       </c>
       <c r="K62">
@@ -43350,6 +46320,7 @@
         <v>0</v>
       </c>
       <c r="L62">
+        <f ca="1"/>
         <v>9.2193160389730344E-4</v>
       </c>
     </row>
@@ -43375,10 +46346,11 @@
         <v>0.1400000000000001</v>
       </c>
       <c r="H63">
+        <f ca="1"/>
         <v>0.14004188799619055</v>
       </c>
       <c r="I63">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H63,B63+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H63,B63+$C$5*$C$2)</f>
         <v>0.10093394489086178</v>
       </c>
       <c r="K63">
@@ -43386,6 +46358,7 @@
         <v>0</v>
       </c>
       <c r="L63">
+        <f ca="1"/>
         <v>5.1064246632828486E-4</v>
       </c>
     </row>
@@ -43411,10 +46384,11 @@
         <v>0.15000000000000011</v>
       </c>
       <c r="H64">
+        <f ca="1"/>
         <v>0.15002194935465135</v>
       </c>
       <c r="I64">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H64,B64+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H64,B64+$C$5*$C$2)</f>
         <v>0.10121438732198745</v>
       </c>
       <c r="K64">
@@ -43422,6 +46396,7 @@
         <v>0</v>
       </c>
       <c r="L64">
+        <f ca="1"/>
         <v>2.7460099438852146E-4</v>
       </c>
     </row>
@@ -43447,10 +46422,11 @@
         <v>0.16000000000000011</v>
       </c>
       <c r="H65">
+        <f ca="1"/>
         <v>0.16001122997877723</v>
       </c>
       <c r="I65">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H65,B65+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H65,B65+$C$5*$C$2)</f>
         <v>0.1015268300926928</v>
       </c>
       <c r="K65">
@@ -43458,6 +46434,7 @@
         <v>0</v>
       </c>
       <c r="L65">
+        <f ca="1"/>
         <v>1.4363451207129288E-4</v>
       </c>
     </row>
@@ -43483,10 +46460,11 @@
         <v>0.17000000000000012</v>
       </c>
       <c r="H66">
+        <f ca="1"/>
         <v>0.17000561690695304</v>
       </c>
       <c r="I66">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H66,B66+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H66,B66+$C$5*$C$2)</f>
         <v>0.10187062546875175</v>
       </c>
       <c r="K66">
@@ -43494,6 +46472,7 @@
         <v>0</v>
       </c>
       <c r="L66">
+        <f ca="1"/>
         <v>7.3210001548433892E-5</v>
       </c>
     </row>
@@ -43519,10 +46498,11 @@
         <v>0.18000000000000013</v>
       </c>
       <c r="H67">
+        <f ca="1"/>
         <v>0.1800027495594991</v>
       </c>
       <c r="I67">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H67,B67+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H67,B67+$C$5*$C$2)</f>
         <v>0.10224379938052049</v>
       </c>
       <c r="K67">
@@ -43530,6 +46510,7 @@
         <v>0</v>
       </c>
       <c r="L67">
+        <f ca="1"/>
         <v>3.6419599908090128E-5</v>
       </c>
     </row>
@@ -43555,10 +46536,11 @@
         <v>0.19000000000000014</v>
       </c>
       <c r="H68">
+        <f ca="1"/>
         <v>0.19000131788906185</v>
       </c>
       <c r="I68">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H68,B68+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H68,B68+$C$5*$C$2)</f>
         <v>0.10264028203922433</v>
       </c>
       <c r="K68">
@@ -43566,6 +46548,7 @@
         <v>0</v>
       </c>
       <c r="L68">
+        <f ca="1"/>
         <v>1.7697984571565726E-5</v>
       </c>
     </row>
@@ -43591,10 +46574,11 @@
         <v>0.20000000000000015</v>
       </c>
       <c r="H69">
+        <f ca="1"/>
         <v>0.2000006167754739</v>
       </c>
       <c r="I69">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H69,B69+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H69,B69+$C$5*$C$2)</f>
         <v>0.10303638113451026</v>
       </c>
       <c r="K69">
@@ -43602,6 +46586,7 @@
         <v>0</v>
       </c>
       <c r="L69">
+        <f ca="1"/>
         <v>8.3795004369837723E-6</v>
       </c>
     </row>
@@ -43627,10 +46612,11 @@
         <v>0.21000000000000016</v>
       </c>
       <c r="H70">
+        <f ca="1"/>
         <v>0.21000027634204813</v>
       </c>
       <c r="I70">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H70,B70+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H70,B70+$C$5*$C$2)</f>
         <v>0.10332396490514505</v>
       </c>
       <c r="K70">
@@ -43638,6 +46624,7 @@
         <v>0</v>
       </c>
       <c r="L70">
+        <f ca="1"/>
         <v>3.7897937387939037E-6</v>
       </c>
     </row>
@@ -43663,10 +46650,11 @@
         <v>0.22000000000000017</v>
       </c>
       <c r="H71">
+        <f ca="1"/>
         <v>0.22000010499516248</v>
       </c>
       <c r="I71">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H71,B71+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H71,B71+$C$5*$C$2)</f>
         <v>0.10292556266316703</v>
       </c>
       <c r="K71">
@@ -43674,6 +46662,7 @@
         <v>0</v>
       </c>
       <c r="L71">
+        <f ca="1"/>
         <v>1.4492778033349159E-6</v>
       </c>
     </row>
@@ -43699,10 +46688,11 @@
         <v>0.23000000000000018</v>
       </c>
       <c r="H72">
+        <f ca="1"/>
         <v>0.23000000000000018</v>
       </c>
       <c r="I72">
-        <f>_xll.xBachelierImplied($C$2,$F$15,H72,B72+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$F$15,H72,B72+$C$5*$C$2)</f>
         <v>0</v>
       </c>
       <c r="K72">
@@ -43710,6 +46700,7 @@
         <v>0</v>
       </c>
       <c r="L72">
+        <f ca="1"/>
         <v>2.1049099722379529E-6</v>
       </c>
     </row>
@@ -43725,7 +46716,7 @@
   <dimension ref="B2:S72"/>
   <sheetViews>
     <sheetView topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -43897,7 +46888,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="2">
-        <f>SUMPRODUCT(N22:N72,H22:H72)</f>
+        <f ca="1">SUMPRODUCT(N22:N72,H22:H72)</f>
         <v>1.1530615799110702E-2</v>
       </c>
     </row>
@@ -43960,11 +46951,11 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <f t="array" ref="J22:J72">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,H22:H72,C15:C19)</f>
+        <f t="array" aca="1" ref="J22:J72" ca="1">_xll.xFd1d(C2,B22:B72,C22:C72,D22:D72,E22:E72,H22:H72,C15:C19)</f>
         <v>0</v>
       </c>
       <c r="K22">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J22,B22+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J22,B22+$C$5*$C$2)</f>
         <v>0</v>
       </c>
       <c r="M22">
@@ -43972,11 +46963,11 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <f t="array" ref="N22:N72">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,M22:M72,N15:N19)</f>
+        <f t="array" aca="1" ref="N22:N72" ca="1">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,M22:M72,N15:N19)</f>
         <v>2.104909972237949E-6</v>
       </c>
       <c r="R22">
-        <f>K47</f>
+        <f ca="1">K47</f>
         <v>0.10004710468799792</v>
       </c>
     </row>
@@ -44010,10 +47001,11 @@
         <v>0</v>
       </c>
       <c r="J23">
+        <f ca="1"/>
         <v>4.3553435042533109E-9</v>
       </c>
       <c r="K23">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J23,B23+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J23,B23+$C$5*$C$2)</f>
         <v>0.10571799591677905</v>
       </c>
       <c r="M23">
@@ -44021,6 +47013,7 @@
         <v>0</v>
       </c>
       <c r="N23">
+        <f ca="1"/>
         <v>1.4492778033349133E-6</v>
       </c>
       <c r="Q23" s="3" t="s">
@@ -44063,10 +47056,11 @@
         <v>0</v>
       </c>
       <c r="J24">
+        <f ca="1"/>
         <v>1.1910227436363576E-8</v>
       </c>
       <c r="K24">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J24,B24+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J24,B24+$C$5*$C$2)</f>
         <v>0.10581409494604407</v>
       </c>
       <c r="M24">
@@ -44074,6 +47068,7 @@
         <v>0</v>
       </c>
       <c r="N24">
+        <f ca="1"/>
         <v>3.7897937387938969E-6</v>
       </c>
       <c r="Q24" s="3">
@@ -44116,10 +47111,11 @@
         <v>0</v>
       </c>
       <c r="J25">
+        <f ca="1"/>
         <v>2.8004980288181105E-8</v>
       </c>
       <c r="K25">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J25,B25+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J25,B25+$C$5*$C$2)</f>
         <v>0.10539456181205906</v>
       </c>
       <c r="M25">
@@ -44127,6 +47123,7 @@
         <v>0</v>
       </c>
       <c r="N25">
+        <f ca="1"/>
         <v>8.3795004369837588E-6</v>
       </c>
       <c r="Q25" s="3">
@@ -44169,10 +47166,11 @@
         <v>0</v>
       </c>
       <c r="J26">
+        <f ca="1"/>
         <v>6.3522995474375813E-8</v>
       </c>
       <c r="K26">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J26,B26+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J26,B26+$C$5*$C$2)</f>
         <v>0.10490207340873993</v>
       </c>
       <c r="M26">
@@ -44180,6 +47178,7 @@
         <v>0</v>
       </c>
       <c r="N26">
+        <f ca="1"/>
         <v>1.7697984571565695E-5</v>
       </c>
       <c r="Q26" s="3">
@@ -44222,10 +47221,11 @@
         <v>0</v>
       </c>
       <c r="J27">
+        <f ca="1"/>
         <v>1.4143080376172079E-7</v>
       </c>
       <c r="K27">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J27,B27+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J27,B27+$C$5*$C$2)</f>
         <v>0.10441253679583709</v>
       </c>
       <c r="M27">
@@ -44233,6 +47233,7 @@
         <v>0</v>
       </c>
       <c r="N27">
+        <f ca="1"/>
         <v>3.6419599908090067E-5</v>
       </c>
       <c r="Q27" s="3">
@@ -44275,10 +47276,11 @@
         <v>0</v>
       </c>
       <c r="J28">
+        <f ca="1"/>
         <v>3.097742587205832E-7</v>
       </c>
       <c r="K28">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J28,B28+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J28,B28+$C$5*$C$2)</f>
         <v>0.10394166182601662</v>
       </c>
       <c r="M28">
@@ -44286,6 +47288,7 @@
         <v>0</v>
       </c>
       <c r="N28">
+        <f ca="1"/>
         <v>7.3210001548433757E-5</v>
       </c>
       <c r="Q28" s="3">
@@ -44328,10 +47331,11 @@
         <v>0</v>
       </c>
       <c r="J29">
+        <f ca="1"/>
         <v>6.6716424328217223E-7</v>
       </c>
       <c r="K29">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J29,B29+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J29,B29+$C$5*$C$2)</f>
         <v>0.10349400067949309</v>
       </c>
       <c r="M29">
@@ -44339,6 +47343,7 @@
         <v>0</v>
       </c>
       <c r="N29">
+        <f ca="1"/>
         <v>1.4363451207129266E-4</v>
       </c>
       <c r="Q29" s="3">
@@ -44381,10 +47386,11 @@
         <v>0</v>
       </c>
       <c r="J30">
+        <f ca="1"/>
         <v>1.4114686632481204E-6</v>
       </c>
       <c r="K30">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J30,B30+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J30,B30+$C$5*$C$2)</f>
         <v>0.10307193978359622</v>
       </c>
       <c r="M30">
@@ -44392,6 +47398,7 @@
         <v>0</v>
       </c>
       <c r="N30">
+        <f ca="1"/>
         <v>2.7460099438852108E-4</v>
       </c>
       <c r="Q30" s="3">
@@ -44434,10 +47441,11 @@
         <v>0</v>
       </c>
       <c r="J31">
+        <f ca="1"/>
         <v>2.9299711942000415E-6</v>
       </c>
       <c r="K31">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J31,B31+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J31,B31+$C$5*$C$2)</f>
         <v>0.10267734238483017</v>
       </c>
       <c r="M31">
@@ -44445,6 +47453,7 @@
         <v>0</v>
       </c>
       <c r="N31">
+        <f ca="1"/>
         <v>5.1064246632828421E-4</v>
       </c>
       <c r="Q31" s="3">
@@ -44487,10 +47496,11 @@
         <v>0</v>
       </c>
       <c r="J32">
+        <f ca="1"/>
         <v>5.9605192861511046E-6</v>
       </c>
       <c r="K32">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J32,B32+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J32,B32+$C$5*$C$2)</f>
         <v>0.1023117857725412</v>
       </c>
       <c r="M32">
@@ -44498,6 +47508,7 @@
         <v>0</v>
       </c>
       <c r="N32">
+        <f ca="1"/>
         <v>9.2193160389730225E-4</v>
       </c>
       <c r="Q32" s="3">
@@ -44540,10 +47551,11 @@
         <v>0</v>
       </c>
       <c r="J33">
+        <f ca="1"/>
         <v>1.1868430482571636E-5</v>
       </c>
       <c r="K33">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J33,B33+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J33,B33+$C$5*$C$2)</f>
         <v>0.10197651847256479</v>
       </c>
       <c r="M33">
@@ -44551,6 +47563,7 @@
         <v>0</v>
       </c>
       <c r="N33">
+        <f ca="1"/>
         <v>1.6130738870245827E-3</v>
       </c>
       <c r="Q33" s="3">
@@ -44593,10 +47606,11 @@
         <v>0</v>
       </c>
       <c r="J34">
+        <f ca="1"/>
         <v>2.3101829753254578E-5</v>
       </c>
       <c r="K34">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J34,B34+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J34,B34+$C$5*$C$2)</f>
         <v>0.10167236049502254</v>
       </c>
       <c r="M34">
@@ -44604,6 +47618,7 @@
         <v>0</v>
       </c>
       <c r="N34">
+        <f ca="1"/>
         <v>2.7304288659927042E-3</v>
       </c>
       <c r="Q34" s="6">
@@ -44646,10 +47661,11 @@
         <v>0</v>
       </c>
       <c r="J35">
+        <f ca="1"/>
         <v>4.390436303689222E-5</v>
       </c>
       <c r="K35">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J35,B35+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J35,B35+$C$5*$C$2)</f>
         <v>0.10139960352377787</v>
       </c>
       <c r="M35">
@@ -44657,6 +47673,7 @@
         <v>0</v>
       </c>
       <c r="N35">
+        <f ca="1"/>
         <v>4.4641976709112012E-3</v>
       </c>
       <c r="Q35" s="3">
@@ -44699,10 +47716,11 @@
         <v>0</v>
       </c>
       <c r="J36">
+        <f ca="1"/>
         <v>8.1370401676429614E-5</v>
       </c>
       <c r="K36">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J36,B36+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J36,B36+$C$5*$C$2)</f>
         <v>0.1011579408860802</v>
       </c>
       <c r="M36">
@@ -44710,6 +47728,7 @@
         <v>0</v>
       </c>
       <c r="N36">
+        <f ca="1"/>
         <v>7.0403558000658416E-3</v>
       </c>
       <c r="Q36" s="3">
@@ -44752,10 +47771,11 @@
         <v>0</v>
       </c>
       <c r="J37">
+        <f ca="1"/>
         <v>1.4691124650235363E-4</v>
       </c>
       <c r="K37">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J37,B37+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J37,B37+$C$5*$C$2)</f>
         <v>0.10094645187024592</v>
       </c>
       <c r="M37">
@@ -44763,6 +47783,7 @@
         <v>0</v>
       </c>
       <c r="N37">
+        <f ca="1"/>
         <v>1.0697518082355447E-2</v>
       </c>
       <c r="Q37" s="3">
@@ -44805,10 +47826,11 @@
         <v>0</v>
       </c>
       <c r="J38">
+        <f ca="1"/>
         <v>2.5814705478865432E-4</v>
       </c>
       <c r="K38">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J38,B38+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J38,B38+$C$5*$C$2)</f>
         <v>0.1007636539335969</v>
       </c>
       <c r="M38">
@@ -44816,6 +47838,7 @@
         <v>0</v>
       </c>
       <c r="N38">
+        <f ca="1"/>
         <v>1.5645924431951952E-2</v>
       </c>
       <c r="Q38" s="3">
@@ -44858,10 +47881,11 @@
         <v>0</v>
       </c>
       <c r="J39">
+        <f ca="1"/>
         <v>4.411376763045089E-4</v>
       </c>
       <c r="K39">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J39,B39+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J39,B39+$C$5*$C$2)</f>
         <v>0.10060761332177721</v>
       </c>
       <c r="M39">
@@ -44869,6 +47893,7 @@
         <v>0</v>
       </c>
       <c r="N39">
+        <f ca="1"/>
         <v>2.2010718069809636E-2</v>
       </c>
       <c r="Q39" s="3">
@@ -44911,10 +47936,11 @@
         <v>0</v>
       </c>
       <c r="J40">
+        <f ca="1"/>
         <v>7.3271753374258867E-4</v>
       </c>
       <c r="K40">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J40,B40+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J40,B40+$C$5*$C$2)</f>
         <v>0.10047608116191187</v>
       </c>
       <c r="M40">
@@ -44922,6 +47948,7 @@
         <v>0</v>
       </c>
       <c r="N40">
+        <f ca="1"/>
         <v>2.9768509679582864E-2</v>
       </c>
       <c r="Q40" s="3">
@@ -44964,10 +47991,11 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <f ca="1"/>
         <v>1.1825271196161183E-3</v>
       </c>
       <c r="K41">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J41,B41+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J41,B41+$C$5*$C$2)</f>
         <v>0.10036662818611786</v>
       </c>
       <c r="M41">
@@ -44975,6 +48003,7 @@
         <v>0</v>
       </c>
       <c r="N41">
+        <f ca="1"/>
         <v>3.8689780094210598E-2</v>
       </c>
       <c r="Q41" s="3">
@@ -45017,10 +48046,11 @@
         <v>0</v>
       </c>
       <c r="J42">
+        <f ca="1"/>
         <v>1.8541851336547855E-3</v>
       </c>
       <c r="K42">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J42,B42+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J42,B42+$C$5*$C$2)</f>
         <v>0.10027679413973806</v>
       </c>
       <c r="M42">
@@ -45028,6 +48058,7 @@
         <v>0</v>
       </c>
       <c r="N42">
+        <f ca="1"/>
         <v>4.8305736549606654E-2</v>
       </c>
       <c r="Q42" s="3">
@@ -45070,10 +48101,11 @@
         <v>0</v>
       </c>
       <c r="J43">
+        <f ca="1"/>
         <v>2.824982592996168E-3</v>
       </c>
       <c r="K43">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J43,B43+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J43,B43+$C$5*$C$2)</f>
         <v>0.10020424664605307</v>
       </c>
       <c r="M43">
@@ -45081,6 +48113,7 @@
         <v>0</v>
       </c>
       <c r="N43">
+        <f ca="1"/>
         <v>5.7949734119718675E-2</v>
       </c>
       <c r="Q43" s="3">
@@ -45123,10 +48156,11 @@
         <v>0</v>
       </c>
       <c r="J44">
+        <f ca="1"/>
         <v>4.1835462108309272E-3</v>
       </c>
       <c r="K44">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J44,B44+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J44,B44+$C$5*$C$2)</f>
         <v>0.10014679180191424</v>
       </c>
       <c r="M44">
@@ -45134,6 +48168,7 @@
         <v>0</v>
       </c>
       <c r="N44">
+        <f ca="1"/>
         <v>6.6731234316927332E-2</v>
       </c>
       <c r="Q44" s="3">
@@ -45176,10 +48211,11 @@
         <v>0</v>
       </c>
       <c r="J45">
+        <f ca="1"/>
         <v>6.025202245555264E-3</v>
       </c>
       <c r="K45">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J45,B45+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J45,B45+$C$5*$C$2)</f>
         <v>0.10010242405820148</v>
       </c>
       <c r="M45">
@@ -45187,6 +48223,7 @@
         <v>0</v>
       </c>
       <c r="N45">
+        <f ca="1"/>
         <v>7.3873296094350963E-2</v>
       </c>
     </row>
@@ -45220,10 +48257,11 @@
         <v>0</v>
       </c>
       <c r="J46">
+        <f ca="1"/>
         <v>8.4452774997607026E-3</v>
       </c>
       <c r="K46">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J46,B46+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J46,B46+$C$5*$C$2)</f>
         <v>0.10006985933721944</v>
       </c>
       <c r="M46">
@@ -45231,6 +48269,7 @@
         <v>0</v>
       </c>
       <c r="N46">
+        <f ca="1"/>
         <v>7.8433110583458282E-2</v>
       </c>
     </row>
@@ -45264,10 +48303,11 @@
         <v>0</v>
       </c>
       <c r="J47" s="1">
+        <f ca="1"/>
         <v>1.1530615799110695E-2</v>
       </c>
       <c r="K47">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J47,B47+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J47,B47+$C$5*$C$2)</f>
         <v>0.10004710468799792</v>
       </c>
       <c r="M47">
@@ -45275,6 +48315,7 @@
         <v>1</v>
       </c>
       <c r="N47">
+        <f ca="1"/>
         <v>8.0105042218738459E-2</v>
       </c>
     </row>
@@ -45308,10 +48349,11 @@
         <v>0</v>
       </c>
       <c r="J48">
+        <f ca="1"/>
         <v>1.5351459250293801E-2</v>
       </c>
       <c r="K48">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J48,B48+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J48,B48+$C$5*$C$2)</f>
         <v>0.10003440755167932</v>
       </c>
       <c r="M48">
@@ -45319,6 +48361,7 @@
         <v>0</v>
       </c>
       <c r="N48">
+        <f ca="1"/>
         <v>7.843311058345831E-2</v>
       </c>
     </row>
@@ -45352,10 +48395,11 @@
         <v>1.2500000000000436E-3</v>
       </c>
       <c r="J49">
+        <f ca="1"/>
         <v>1.9953023953744192E-2</v>
       </c>
       <c r="K49">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J49,B49+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J49,B49+$C$5*$C$2)</f>
         <v>0.10002962801368935</v>
       </c>
       <c r="M49">
@@ -45363,6 +48407,7 @@
         <v>0</v>
       </c>
       <c r="N49">
+        <f ca="1"/>
         <v>7.3873296094350976E-2</v>
       </c>
     </row>
@@ -45396,10 +48441,11 @@
         <v>1.0000000000000087E-2</v>
       </c>
       <c r="J50">
+        <f ca="1"/>
         <v>2.5351459250293723E-2</v>
       </c>
       <c r="K50">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J50,B50+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J50,B50+$C$5*$C$2)</f>
         <v>0.10003440755167885</v>
       </c>
       <c r="M50">
@@ -45407,6 +48453,7 @@
         <v>0</v>
       </c>
       <c r="N50">
+        <f ca="1"/>
         <v>6.673123431692736E-2</v>
       </c>
     </row>
@@ -45440,10 +48487,11 @@
         <v>2.0000000000000091E-2</v>
       </c>
       <c r="J51">
+        <f ca="1"/>
         <v>3.1530615799110429E-2</v>
       </c>
       <c r="K51">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J51,B51+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J51,B51+$C$5*$C$2)</f>
         <v>0.10004710468799631</v>
       </c>
       <c r="M51">
@@ -45451,6 +48499,7 @@
         <v>0</v>
       </c>
       <c r="N51">
+        <f ca="1"/>
         <v>5.7949734119718668E-2</v>
       </c>
     </row>
@@ -45484,10 +48533,11 @@
         <v>3.0000000000000079E-2</v>
       </c>
       <c r="J52">
+        <f ca="1"/>
         <v>3.8445277499759935E-2</v>
       </c>
       <c r="K52">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J52,B52+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J52,B52+$C$5*$C$2)</f>
         <v>0.1000698593372146</v>
       </c>
       <c r="M52">
@@ -45495,6 +48545,7 @@
         <v>0</v>
       </c>
       <c r="N52">
+        <f ca="1"/>
         <v>4.8305736549606654E-2</v>
       </c>
     </row>
@@ -45528,10 +48579,11 @@
         <v>4.0000000000000084E-2</v>
       </c>
       <c r="J53">
+        <f ca="1"/>
         <v>4.6025202245553162E-2</v>
       </c>
       <c r="K53">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J53,B53+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J53,B53+$C$5*$C$2)</f>
         <v>0.10010242405818667</v>
       </c>
       <c r="M53">
@@ -45539,6 +48591,7 @@
         <v>0</v>
       </c>
       <c r="N53">
+        <f ca="1"/>
         <v>3.8689780094210591E-2</v>
       </c>
     </row>
@@ -45572,10 +48625,11 @@
         <v>5.0000000000000086E-2</v>
       </c>
       <c r="J54">
+        <f ca="1"/>
         <v>5.4183546210825315E-2</v>
       </c>
       <c r="K54">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J54,B54+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J54,B54+$C$5*$C$2)</f>
         <v>0.10014679180186742</v>
       </c>
       <c r="M54">
@@ -45583,6 +48637,7 @@
         <v>0</v>
       </c>
       <c r="N54">
+        <f ca="1"/>
         <v>2.9768509679582864E-2</v>
       </c>
     </row>
@@ -45616,10 +48671,11 @@
         <v>6.0000000000000074E-2</v>
       </c>
       <c r="J55">
+        <f ca="1"/>
         <v>6.2824982592981332E-2</v>
       </c>
       <c r="K55">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J55,B55+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J55,B55+$C$5*$C$2)</f>
         <v>0.10020424664590008</v>
       </c>
       <c r="M55">
@@ -45627,6 +48683,7 @@
         <v>0</v>
       </c>
       <c r="N55">
+        <f ca="1"/>
         <v>2.2010718069809657E-2</v>
       </c>
     </row>
@@ -45660,10 +48717,11 @@
         <v>7.0000000000000076E-2</v>
       </c>
       <c r="J56">
+        <f ca="1"/>
         <v>7.1854185133615883E-2</v>
       </c>
       <c r="K56">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J56,B56+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J56,B56+$C$5*$C$2)</f>
         <v>0.10027679413922035</v>
       </c>
       <c r="M56">
@@ -45671,6 +48729,7 @@
         <v>0</v>
       </c>
       <c r="N56">
+        <f ca="1"/>
         <v>1.5645924431951966E-2</v>
       </c>
     </row>
@@ -45704,10 +48763,11 @@
         <v>8.0000000000000057E-2</v>
       </c>
       <c r="J57">
+        <f ca="1"/>
         <v>8.1182527119514847E-2</v>
       </c>
       <c r="K57">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J57,B57+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J57,B57+$C$5*$C$2)</f>
         <v>0.10036662818430761</v>
       </c>
       <c r="M57">
@@ -45715,6 +48775,7 @@
         <v>0</v>
       </c>
       <c r="N57">
+        <f ca="1"/>
         <v>1.0697518082355459E-2</v>
       </c>
     </row>
@@ -45748,10 +48809,11 @@
         <v>9.0000000000000108E-2</v>
       </c>
       <c r="J58">
+        <f ca="1"/>
         <v>9.0732717533480819E-2</v>
       </c>
       <c r="K58">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J58,B58+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J58,B58+$C$5*$C$2)</f>
         <v>0.1004760811553797</v>
       </c>
       <c r="M58">
@@ -45759,6 +48821,7 @@
         <v>0</v>
       </c>
       <c r="N58">
+        <f ca="1"/>
         <v>7.0403558000658494E-3</v>
       </c>
     </row>
@@ -45792,10 +48855,11 @@
         <v>0.10000000000000002</v>
       </c>
       <c r="J59">
+        <f ca="1"/>
         <v>0.10044113767563262</v>
       </c>
       <c r="K59">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J59,B59+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J59,B59+$C$5*$C$2)</f>
         <v>0.10060761329747822</v>
       </c>
       <c r="M59">
@@ -45803,6 +48867,7 @@
         <v>0</v>
       </c>
       <c r="N59">
+        <f ca="1"/>
         <v>4.4641976709112073E-3</v>
       </c>
     </row>
@@ -45836,10 +48901,11 @@
         <v>0.1100000000000001</v>
       </c>
       <c r="J60">
+        <f ca="1"/>
         <v>0.11025814705307622</v>
       </c>
       <c r="K60">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J60,B60+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J60,B60+$C$5*$C$2)</f>
         <v>0.10076365384051426</v>
       </c>
       <c r="M60">
@@ -45847,6 +48913,7 @@
         <v>0</v>
       </c>
       <c r="N60">
+        <f ca="1"/>
         <v>2.7304288659927073E-3</v>
       </c>
     </row>
@@ -45880,10 +48947,11 @@
         <v>0.1200000000000002</v>
       </c>
       <c r="J61">
+        <f ca="1"/>
         <v>0.1201469112421699</v>
       </c>
       <c r="K61">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J61,B61+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J61,B61+$C$5*$C$2)</f>
         <v>0.10094645150356962</v>
       </c>
       <c r="M61">
@@ -45891,6 +48959,7 @@
         <v>0</v>
       </c>
       <c r="N61">
+        <f ca="1"/>
         <v>1.6130738870245847E-3</v>
       </c>
     </row>
@@ -45924,10 +48993,11 @@
         <v>0.13000000000000014</v>
       </c>
       <c r="J62">
+        <f ca="1"/>
         <v>0.13008137039079906</v>
       </c>
       <c r="K62">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J62,B62+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J62,B62+$C$5*$C$2)</f>
         <v>0.10115793940305569</v>
       </c>
       <c r="M62">
@@ -45935,6 +49005,7 @@
         <v>0</v>
       </c>
       <c r="N62">
+        <f ca="1"/>
         <v>9.2193160389730344E-4</v>
       </c>
     </row>
@@ -45968,10 +49039,11 @@
         <v>0.14000000000000007</v>
       </c>
       <c r="J63">
+        <f ca="1"/>
         <v>0.14004390433594702</v>
       </c>
       <c r="K63">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J63,B63+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J63,B63+$C$5*$C$2)</f>
         <v>0.10139959737639356</v>
       </c>
       <c r="M63">
@@ -45979,6 +49051,7 @@
         <v>0</v>
       </c>
       <c r="N63">
+        <f ca="1"/>
         <v>5.1064246632828486E-4</v>
       </c>
     </row>
@@ -46012,10 +49085,11 @@
         <v>0.15</v>
       </c>
       <c r="J64">
+        <f ca="1"/>
         <v>0.15002310176285946</v>
       </c>
       <c r="K64">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J64,B64+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J64,B64+$C$5*$C$2)</f>
         <v>0.10167233442932258</v>
       </c>
       <c r="M64">
@@ -46023,6 +49097,7 @@
         <v>0</v>
       </c>
       <c r="N64">
+        <f ca="1"/>
         <v>2.7460099438852146E-4</v>
       </c>
     </row>
@@ -46056,10 +49131,11 @@
         <v>0.16000000000000028</v>
       </c>
       <c r="J65">
+        <f ca="1"/>
         <v>0.16001186826678343</v>
       </c>
       <c r="K65">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J65,B65+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J65,B65+$C$5*$C$2)</f>
         <v>0.10197640564986465</v>
       </c>
       <c r="M65">
@@ -46067,6 +49143,7 @@
         <v>0</v>
       </c>
       <c r="N65">
+        <f ca="1"/>
         <v>1.4363451207129288E-4</v>
       </c>
     </row>
@@ -46100,10 +49177,11 @@
         <v>0.17000000000000004</v>
       </c>
       <c r="J66">
+        <f ca="1"/>
         <v>0.1700059601224993</v>
       </c>
       <c r="K66">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J66,B66+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J66,B66+$C$5*$C$2)</f>
         <v>0.10231128831813516</v>
       </c>
       <c r="M66">
@@ -46111,6 +49189,7 @@
         <v>0</v>
       </c>
       <c r="N66">
+        <f ca="1"/>
         <v>7.3210001548433892E-5</v>
       </c>
     </row>
@@ -46144,10 +49223,11 @@
         <v>0.1800000000000003</v>
       </c>
       <c r="J67">
+        <f ca="1"/>
         <v>0.18000292901912618</v>
       </c>
       <c r="K67">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J67,B67+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J67,B67+$C$5*$C$2)</f>
         <v>0.10267511280025858</v>
       </c>
       <c r="M67">
@@ -46155,6 +49235,7 @@
         <v>0</v>
       </c>
       <c r="N67">
+        <f ca="1"/>
         <v>3.6419599908090128E-5</v>
       </c>
     </row>
@@ -46188,10 +49269,11 @@
         <v>0.19000000000000006</v>
       </c>
       <c r="J68">
+        <f ca="1"/>
         <v>0.19000140920866801</v>
       </c>
       <c r="K68">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J68,B68+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J68,B68+$C$5*$C$2)</f>
         <v>0.10306180059941915</v>
       </c>
       <c r="M68">
@@ -46199,6 +49281,7 @@
         <v>0</v>
       </c>
       <c r="N68">
+        <f ca="1"/>
         <v>1.7697984571565726E-5</v>
       </c>
     </row>
@@ -46232,10 +49315,11 @@
         <v>0.2</v>
       </c>
       <c r="J69">
+        <f ca="1"/>
         <v>0.20000066186049414</v>
       </c>
       <c r="K69">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J69,B69+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J69,B69+$C$5*$C$2)</f>
         <v>0.10344723871235663</v>
       </c>
       <c r="M69">
@@ -46243,6 +49327,7 @@
         <v>0</v>
       </c>
       <c r="N69">
+        <f ca="1"/>
         <v>8.3795004369837723E-6</v>
       </c>
     </row>
@@ -46276,10 +49361,11 @@
         <v>0.21000000000000027</v>
       </c>
       <c r="J70">
+        <f ca="1"/>
         <v>0.21000029747786564</v>
       </c>
       <c r="K70">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J70,B70+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J70,B70+$C$5*$C$2)</f>
         <v>0.10372143412125141</v>
       </c>
       <c r="M70">
@@ -46287,6 +49373,7 @@
         <v>0</v>
       </c>
       <c r="N70">
+        <f ca="1"/>
         <v>3.7897937387939037E-6</v>
       </c>
     </row>
@@ -46320,10 +49407,11 @@
         <v>0.2200000000000002</v>
       </c>
       <c r="J71">
+        <f ca="1"/>
         <v>0.22000011328912789</v>
       </c>
       <c r="K71">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J71,B71+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J71,B71+$C$5*$C$2)</f>
         <v>0.10329951531932818</v>
       </c>
       <c r="M71">
@@ -46331,6 +49419,7 @@
         <v>0</v>
       </c>
       <c r="N71">
+        <f ca="1"/>
         <v>1.4492778033349159E-6</v>
       </c>
     </row>
@@ -46364,10 +49453,11 @@
         <v>0.23000000000000015</v>
       </c>
       <c r="J72">
+        <f ca="1"/>
         <v>0.23000000000000015</v>
       </c>
       <c r="K72">
-        <f>_xll.xBachelierImplied($C$2,$H$15,J72,B72+$C$5*$C$2)</f>
+        <f ca="1">_xll.xBachelierImplied($C$2,$H$15,J72,B72+$C$5*$C$2)</f>
         <v>0</v>
       </c>
       <c r="M72">
@@ -46375,6 +49465,7 @@
         <v>0</v>
       </c>
       <c r="N72">
+        <f ca="1"/>
         <v>2.1049099722379529E-6</v>
       </c>
     </row>
@@ -46390,7 +49481,7 @@
   <dimension ref="B2:L72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -46486,7 +49577,7 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -46498,7 +49589,8 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>30</v>
+        <f ca="1">C15</f>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
@@ -46563,7 +49655,7 @@
       </c>
       <c r="L20" s="2">
         <f ca="1">SUMPRODUCT(L22:L72,F22:F72)</f>
-        <v>4.2560309533067012E-2</v>
+        <v>40.817499999998951</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
@@ -46620,7 +49712,7 @@
       </c>
       <c r="L22">
         <f t="array" aca="1" ref="L22:L72" ca="1">_xll.xFd1d($C$2,B22:B72,C22:C72,D22:D72,E22:E72,K22:K72,L15:L19)</f>
-        <v>8.222883472574153E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
@@ -46646,7 +49738,7 @@
       </c>
       <c r="H23">
         <f ca="1"/>
-        <v>2.9076885609609913E-9</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" ref="K23:K72" ca="1" si="5">IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
@@ -46654,7 +49746,7 @@
       </c>
       <c r="L23">
         <f ca="1"/>
-        <v>1.88151826546097E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
@@ -46680,7 +49772,7 @@
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>1.1806230596071421E-8</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="5"/>
@@ -46688,7 +49780,7 @@
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>6.8369582429900804E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
@@ -46714,7 +49806,7 @@
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>4.1603320430533667E-8</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="5"/>
@@ -46722,7 +49814,7 @@
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>2.1403364534846359E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
@@ -46748,7 +49840,7 @@
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1.3416057344302131E-7</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="5"/>
@@ -46756,7 +49848,7 @@
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>6.1333609946731457E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
@@ -46782,7 +49874,7 @@
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>4.0013550926974966E-7</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="5"/>
@@ -46790,7 +49882,7 @@
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>1.6283840426211628E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
@@ -46816,7 +49908,7 @@
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>1.1117653463796268E-6</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="5"/>
@@ -46824,7 +49916,7 @@
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>4.0279506058811398E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
@@ -46850,7 +49942,7 @@
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>2.8943862812245208E-6</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="5"/>
@@ -46858,7 +49950,7 @@
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>9.3359705293968517E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
@@ -46884,7 +49976,7 @@
       </c>
       <c r="H30">
         <f ca="1"/>
-        <v>7.095051132016785E-6</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="5"/>
@@ -46892,7 +49984,7 @@
       </c>
       <c r="L30">
         <f ca="1"/>
-        <v>2.035296673075642E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
@@ -46918,7 +50010,7 @@
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>1.6443399418066101E-5</v>
+        <v>0</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="5"/>
@@ -46926,7 +50018,7 @@
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>4.1894768512870943E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
@@ -46952,7 +50044,7 @@
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>3.6158349497139225E-5</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="5"/>
@@ -46960,7 +50052,7 @@
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>8.1647730321861788E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -46986,7 +50078,7 @@
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>7.5673727041751881E-5</v>
+        <v>0</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="5"/>
@@ -46994,7 +50086,7 @@
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>1.5106535834520222E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -47020,7 +50112,7 @@
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>1.511433609005478E-4</v>
+        <v>0</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="5"/>
@@ -47028,7 +50120,7 @@
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>2.6588905124805369E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -47054,7 +50146,7 @@
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>2.8880051587343742E-4</v>
+        <v>0</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="5"/>
@@ -47062,7 +50154,7 @@
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>4.4608326853770915E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -47088,7 +50180,7 @@
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>5.2909234242342414E-4</v>
+        <v>0</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="5"/>
@@ -47096,7 +50188,7 @@
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>7.144436259288049E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -47122,7 +50214,7 @@
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>9.3124833594440833E-4</v>
+        <v>0</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="5"/>
@@ -47130,7 +50222,7 @@
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>1.0939524616335254E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -47156,7 +50248,7 @@
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>1.5776590999237914E-3</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="5"/>
@@ -47164,7 +50256,7 @@
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>1.6032380242673849E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -47190,7 +50282,7 @@
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>2.5771231933448824E-3</v>
+        <v>0</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="5"/>
@@ -47198,7 +50290,7 @@
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>2.2513525160319806E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -47224,7 +50316,7 @@
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>4.0658784489484463E-3</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="5"/>
@@ -47232,7 +50324,7 @@
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>3.0317656955534931E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -47258,7 +50350,7 @@
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>6.205315932961631E-3</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="5"/>
@@ -47266,7 +50358,7 @@
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>3.9183474815318795E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -47292,7 +50384,7 @@
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>9.1756642685869132E-3</v>
+        <v>0.48828125000001699</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="5"/>
@@ -47300,7 +50392,7 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>4.863174587646233E-2</v>
+        <v>97.656250000000028</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -47326,7 +50418,7 @@
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>1.316546352026382E-2</v>
+        <v>-1.4648437500001188</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="5"/>
@@ -47334,7 +50426,7 @@
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>5.7994945580938519E-2</v>
+        <v>-781.25000000000045</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -47360,7 +50452,7 @@
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>1.8357576403544747E-2</v>
+        <v>-0.1953124999996021</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="5"/>
@@ -47368,7 +50460,7 @@
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>6.6477889577988267E-2</v>
+        <v>2988.2812500000018</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -47394,7 +50486,7 @@
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>2.4913215062146485E-2</v>
+        <v>10.273437499999176</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="5"/>
@@ -47402,7 +50494,7 @@
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>7.327148633019627E-2</v>
+        <v>-7125.0000000000055</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -47428,7 +50520,7 @@
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>3.2956268695897337E-2</v>
+        <v>-27.749999999998856</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="5"/>
@@ -47436,7 +50528,7 @@
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>7.7668536039233432E-2</v>
+        <v>11676.562500000011</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -47462,7 +50554,7 @@
       </c>
       <c r="H47" s="1">
         <f ca="1"/>
-        <v>4.2560309533067012E-2</v>
+        <v>40.817499999998887</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="5"/>
@@ -47470,7 +50562,7 @@
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>7.9191832566065809E-2</v>
+        <v>-13711.500000000015</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -47496,7 +50588,7 @@
       </c>
       <c r="H48">
         <f ca="1"/>
-        <v>5.3740570538923838E-2</v>
+        <v>-37.904687499999262</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="5"/>
@@ -47504,7 +50596,7 @@
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>7.7668536039233446E-2</v>
+        <v>11676.562500000011</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -47530,7 +50622,7 @@
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>6.6452217017020143E-2</v>
+        <v>22.896562499999668</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="5"/>
@@ -47538,7 +50630,7 @@
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>7.3271486330196284E-2</v>
+        <v>-7125.0000000000045</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -47564,7 +50656,7 @@
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>8.0595325237959356E-2</v>
+        <v>-8.2357812499998637</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="5"/>
@@ -47572,7 +50664,7 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>6.6477889577988281E-2</v>
+        <v>2988.2812500000018</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -47598,7 +50690,7 @@
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>9.6025576530473084E-2</v>
+        <v>1.5498437499998148</v>
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="5"/>
@@ -47606,7 +50698,7 @@
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>5.7994945580938533E-2</v>
+        <v>-781.25000000000045</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -47632,7 +50724,7 @@
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>0.11256891073608319</v>
+        <v>0.10500000000033061</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="5"/>
@@ -47640,7 +50732,7 @@
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>4.863174587646233E-2</v>
+        <v>97.656250000000028</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -47666,7 +50758,7 @@
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>0.13003763850391684</v>
+        <v>0.1249999999995951</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="5"/>
@@ -47674,7 +50766,7 @@
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>3.9183474815318781E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -47700,7 +50792,7 @@
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>0.14824570667875794</v>
+        <v>0.14500000000033331</v>
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="5"/>
@@ -47708,7 +50800,7 @@
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>3.0317656955534924E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -47734,7 +50826,7 @@
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>0.16702110733373365</v>
+        <v>0.16499999999983239</v>
       </c>
       <c r="K55">
         <f t="shared" ca="1" si="5"/>
@@ -47742,7 +50834,7 @@
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>2.2513525160319816E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -47768,7 +50860,7 @@
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>0.18621437276732755</v>
+        <v>0.18500000000003197</v>
       </c>
       <c r="K56">
         <f t="shared" ca="1" si="5"/>
@@ -47776,7 +50868,7 @@
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>1.6032380242673852E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -47802,7 +50894,7 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>0.20570282152764324</v>
+        <v>0.20499999999999052</v>
       </c>
       <c r="K57">
         <f t="shared" ca="1" si="5"/>
@@ -47810,7 +50902,7 @@
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>1.093952461633526E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -47836,7 +50928,7 @@
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>0.22539108533850039</v>
+        <v>0.22500000000008447</v>
       </c>
       <c r="K58">
         <f t="shared" ca="1" si="5"/>
@@ -47844,7 +50936,7 @@
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>7.1444362592880516E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -47870,7 +50962,7 @@
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>0.2452088198566737</v>
+        <v>0.24499999999981348</v>
       </c>
       <c r="K59">
         <f t="shared" ca="1" si="5"/>
@@ -47878,7 +50970,7 @@
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>4.4608326853770933E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -47904,7 +50996,7 @@
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>0.26510676131769018</v>
+        <v>0.26500000000027191</v>
       </c>
       <c r="K60">
         <f t="shared" ca="1" si="5"/>
@@ -47912,7 +51004,7 @@
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>2.6588905124805377E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -47938,7 +51030,7 @@
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>0.28505213940431096</v>
+        <v>0.28499999999966663</v>
       </c>
       <c r="K61">
         <f t="shared" ca="1" si="5"/>
@@ -47946,7 +51038,7 @@
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>1.5106535834520231E-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -47972,7 +51064,7 @@
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>0.30502425968119973</v>
+        <v>0.30500000000034599</v>
       </c>
       <c r="K62">
         <f t="shared" ca="1" si="5"/>
@@ -47980,7 +51072,7 @@
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>8.1647730321861821E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -48006,7 +51098,7 @@
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>0.32501072185606239</v>
+        <v>0.32499999999973994</v>
       </c>
       <c r="K63">
         <f t="shared" ca="1" si="5"/>
@@ -48014,7 +51106,7 @@
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>4.189476851287096E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -48040,7 +51132,7 @@
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>0.34500448589453853</v>
+        <v>0.34500000000009901</v>
       </c>
       <c r="K64">
         <f t="shared" ca="1" si="5"/>
@@ -48048,7 +51140,7 @@
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>2.0352966730756433E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -48074,7 +51166,7 @@
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0.36500176967655074</v>
+        <v>0.36500000000000732</v>
       </c>
       <c r="K65">
         <f t="shared" ca="1" si="5"/>
@@ -48082,7 +51174,7 @@
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>9.3359705293968585E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -48108,7 +51200,7 @@
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>0.38500065525167271</v>
+        <v>0.38500000000005219</v>
       </c>
       <c r="K66">
         <f t="shared" ca="1" si="5"/>
@@ -48116,7 +51208,7 @@
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>4.0279506058811425E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -48142,7 +51234,7 @@
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>0.40500022643860728</v>
+        <v>0.40499999999979064</v>
       </c>
       <c r="K67">
         <f t="shared" ca="1" si="5"/>
@@ -48150,7 +51242,7 @@
       </c>
       <c r="L67">
         <f ca="1"/>
-        <v>1.6283840426211642E-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -48176,7 +51268,7 @@
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>0.42500007255018857</v>
+        <v>0.42500000000027294</v>
       </c>
       <c r="K68">
         <f t="shared" ca="1" si="5"/>
@@ -48184,7 +51276,7 @@
       </c>
       <c r="L68">
         <f ca="1"/>
-        <v>6.1333609946731508E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -48210,7 +51302,7 @@
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>0.44500002136580136</v>
+        <v>0.44499999999986395</v>
       </c>
       <c r="K69">
         <f t="shared" ca="1" si="5"/>
@@ -48218,7 +51310,7 @@
       </c>
       <c r="L69">
         <f ca="1"/>
-        <v>2.1403364534846384E-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -48244,7 +51336,7 @@
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>0.46500000571662864</v>
+        <v>0.46499999999992725</v>
       </c>
       <c r="K70">
         <f t="shared" ca="1" si="5"/>
@@ -48252,7 +51344,7 @@
       </c>
       <c r="L70">
         <f ca="1"/>
-        <v>6.8369582429900888E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -48278,7 +51370,7 @@
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>0.48500000132222426</v>
+        <v>0.4850000000001351</v>
       </c>
       <c r="K71">
         <f t="shared" ca="1" si="5"/>
@@ -48286,7 +51378,7 @@
       </c>
       <c r="L71">
         <f ca="1"/>
-        <v>1.8815182654609732E-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -48320,7 +51412,7 @@
       </c>
       <c r="L72">
         <f ca="1"/>
-        <v>8.2228834725741662E-8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -50502,7 +53594,7 @@
       </c>
       <c r="L21" s="2">
         <f ca="1">SUMPRODUCT(L23:L73,F23:F73)</f>
-        <v>7.0574249851004479E-3</v>
+        <v>1.1389057999476745E-2</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
@@ -50535,15 +53627,15 @@
       </c>
       <c r="C23">
         <f ca="1">0.1*(RAND()-0.5)</f>
-        <v>2.6290391552504323E-2</v>
+        <v>2.8626232362756979E-2</v>
       </c>
       <c r="D23">
         <f ca="1">0.1*(RAND()-0.5)</f>
-        <v>4.9084728409172933E-2</v>
+        <v>-4.2699003097823075E-2</v>
       </c>
       <c r="E23">
         <f ca="1">$C$6*RAND()</f>
-        <v>7.7671143564526021E-2</v>
+        <v>1.4154099630971696E-3</v>
       </c>
       <c r="F23">
         <f>MAX(0,B23-$F$16)</f>
@@ -50551,7 +53643,7 @@
       </c>
       <c r="H23">
         <f t="array" aca="1" ref="H23:H73" ca="1">_xll.xFd1d(C2,B23:B73,C23:C73,D23:D73,E23:E73,F23:F73,C16:C20)</f>
-        <v>2.8124932843132363E-11</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <f>IF(ABS(B23-$C$3)&lt;0.0000000001,1,0)</f>
@@ -50559,11 +53651,11 @@
       </c>
       <c r="L23">
         <f t="array" aca="1" ref="L23:L73" ca="1">_xll.xFd1d($C$2,B23:B73,C23:C73,D23:D73,E23:E73,K23:K73,L16:L20)</f>
-        <v>1.3344850284355311E-11</v>
+        <v>3.8509466842317675E-10</v>
       </c>
       <c r="N23">
         <f ca="1">SUM(L23:L73)</f>
-        <v>0.99628910908942514</v>
+        <v>0.99796983650920645</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
@@ -50573,15 +53665,15 @@
       </c>
       <c r="C24">
         <f t="shared" ref="C24:D55" ca="1" si="1">0.1*(RAND()-0.5)</f>
-        <v>4.4978519469669907E-3</v>
+        <v>2.6760579959175714E-2</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5433036617450046E-2</v>
+        <v>-4.3547902125823212E-2</v>
       </c>
       <c r="E24">
         <f t="shared" ref="E24:E73" ca="1" si="2">$C$6*RAND()</f>
-        <v>9.6706761034966421E-2</v>
+        <v>8.1520190732579864E-2</v>
       </c>
       <c r="F24">
         <f t="shared" ref="F24:F73" si="3">MAX(0,B24-$F$16)</f>
@@ -50589,7 +53681,7 @@
       </c>
       <c r="H24">
         <f ca="1"/>
-        <v>5.1195071059115916E-11</v>
+        <v>2.7606532621719618E-11</v>
       </c>
       <c r="K24">
         <f t="shared" ref="K24:K73" si="4">IF(ABS(B24-$C$3)&lt;0.0000000001,1,0)</f>
@@ -50597,7 +53689,7 @@
       </c>
       <c r="L24">
         <f ca="1"/>
-        <v>2.5498408477297596E-12</v>
+        <v>4.1279919595038633E-11</v>
       </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
@@ -50607,15 +53699,15 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.0523365752467092E-2</v>
+        <v>-1.0611873840631114E-2</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2884508120279814E-2</v>
+        <v>-4.6870935210673009E-2</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4916697816487309E-2</v>
+        <v>7.3498576612586755E-2</v>
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
@@ -50623,7 +53715,7 @@
       </c>
       <c r="H25">
         <f ca="1"/>
-        <v>7.6218182508250161E-11</v>
+        <v>6.2176698093424395E-11</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
@@ -50631,7 +53723,7 @@
       </c>
       <c r="L25">
         <f ca="1"/>
-        <v>1.2915712684858566E-11</v>
+        <v>9.7461430107675939E-11</v>
       </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
@@ -50641,15 +53733,15 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9695619238862018E-2</v>
+        <v>-4.5000018078179549E-3</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0961783305331739E-2</v>
+        <v>4.361259180484988E-2</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>2.6567779168926078E-2</v>
+        <v>4.7564481748904132E-2</v>
       </c>
       <c r="F26">
         <f t="shared" si="3"/>
@@ -50657,7 +53749,7 @@
       </c>
       <c r="H26">
         <f ca="1"/>
-        <v>1.1323296365271284E-10</v>
+        <v>1.1192929545010874E-10</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
@@ -50665,7 +53757,7 @@
       </c>
       <c r="L26">
         <f ca="1"/>
-        <v>9.9863366649199323E-11</v>
+        <v>4.1892976061420087E-10</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
@@ -50675,15 +53767,15 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.1871160108002377E-3</v>
+        <v>2.8836575226281014E-2</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1071774320438015E-2</v>
+        <v>-3.6419759824319019E-2</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5393895806403391E-2</v>
+        <v>7.4314005812031222E-2</v>
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
@@ -50691,7 +53783,7 @@
       </c>
       <c r="H27">
         <f ca="1"/>
-        <v>2.0164947567015173E-10</v>
+        <v>1.763713074118153E-10</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
@@ -50699,7 +53791,7 @@
       </c>
       <c r="L27">
         <f ca="1"/>
-        <v>3.6222714952115764E-11</v>
+        <v>3.3102799612332792E-10</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
@@ -50709,15 +53801,15 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6571727417959037E-2</v>
+        <v>-2.3004803058764269E-2</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4486445187328451E-2</v>
+        <v>4.1767427935152757E-2</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7285021831254894E-2</v>
+        <v>3.2785150211038637E-2</v>
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
@@ -50725,7 +53817,7 @@
       </c>
       <c r="H28">
         <f ca="1"/>
-        <v>3.312148808340289E-10</v>
+        <v>2.7504619225967259E-10</v>
       </c>
       <c r="K28">
         <f t="shared" si="4"/>
@@ -50733,7 +53825,7 @@
       </c>
       <c r="L28">
         <f ca="1"/>
-        <v>4.9280020051330385E-11</v>
+        <v>2.6523413517530178E-9</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
@@ -50743,15 +53835,15 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.6000212134978993E-3</v>
+        <v>2.7839992684119776E-2</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6254205330688953E-2</v>
+        <v>3.2644407266506206E-2</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4033182427768886E-2</v>
+        <v>2.4660772116431962E-2</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
@@ -50759,7 +53851,7 @@
       </c>
       <c r="H29">
         <f ca="1"/>
-        <v>5.2462581970337052E-10</v>
+        <v>4.4509711617296027E-10</v>
       </c>
       <c r="K29">
         <f t="shared" si="4"/>
@@ -50767,7 +53859,7 @@
       </c>
       <c r="L29">
         <f ca="1"/>
-        <v>8.0719562224541186E-10</v>
+        <v>1.3481784702105084E-8</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
@@ -50777,15 +53869,15 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="1"/>
-        <v>1.9720918787093325E-2</v>
+        <v>1.5912929927008768E-2</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="1"/>
-        <v>3.2493153872750091E-2</v>
+        <v>-4.5821037896789679E-2</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6118359924062047E-2</v>
+        <v>7.1862764812548732E-2</v>
       </c>
       <c r="F30">
         <f t="shared" si="3"/>
@@ -50793,7 +53885,7 @@
       </c>
       <c r="H30">
         <f ca="1"/>
-        <v>9.3187249308159989E-10</v>
+        <v>8.1143951548528024E-10</v>
       </c>
       <c r="K30">
         <f t="shared" si="4"/>
@@ -50801,7 +53893,7 @@
       </c>
       <c r="L30">
         <f ca="1"/>
-        <v>8.7816270223564072E-10</v>
+        <v>5.0971365146988255E-9</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
@@ -50811,15 +53903,15 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1932025311152894E-2</v>
+        <v>-1.0914356078219778E-3</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3058203739160768E-2</v>
+        <v>4.8270515179136275E-2</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="2"/>
-        <v>6.1231930299763031E-2</v>
+        <v>7.7584244587434154E-2</v>
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
@@ -50827,7 +53919,7 @@
       </c>
       <c r="H31">
         <f ca="1"/>
-        <v>1.5136095122627271E-9</v>
+        <v>1.3689919715521061E-9</v>
       </c>
       <c r="K31">
         <f t="shared" si="4"/>
@@ -50835,7 +53927,7 @@
       </c>
       <c r="L31">
         <f ca="1"/>
-        <v>1.0563692643195137E-9</v>
+        <v>7.377883369960027E-9</v>
       </c>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
@@ -50845,15 +53937,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.279670615884437E-2</v>
+        <v>3.4504605366901468E-2</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4216236124902046E-2</v>
+        <v>4.3620756487905671E-2</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="2"/>
-        <v>7.8018633359170642E-2</v>
+        <v>8.8817042429705242E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
@@ -50861,7 +53953,7 @@
       </c>
       <c r="H32">
         <f ca="1"/>
-        <v>2.3602928833570736E-9</v>
+        <v>2.0062365891862294E-9</v>
       </c>
       <c r="K32">
         <f t="shared" si="4"/>
@@ -50869,7 +53961,7 @@
       </c>
       <c r="L32">
         <f ca="1"/>
-        <v>9.4767242675863462E-10</v>
+        <v>9.5734780933220313E-9</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -50879,15 +53971,15 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.7672182834036911E-2</v>
+        <v>4.4518317035259818E-2</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.1437371267697361E-3</v>
+        <v>-4.2661643763304946E-2</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9468819623610261E-2</v>
+        <v>7.6572949781633703E-2</v>
       </c>
       <c r="F33">
         <f t="shared" si="3"/>
@@ -50895,7 +53987,7 @@
       </c>
       <c r="H33">
         <f ca="1"/>
-        <v>3.6376539882020703E-9</v>
+        <v>2.7648037274332814E-9</v>
       </c>
       <c r="K33">
         <f t="shared" si="4"/>
@@ -50903,7 +53995,7 @@
       </c>
       <c r="L33">
         <f ca="1"/>
-        <v>8.8223151113536357E-10</v>
+        <v>1.7208660210110029E-8</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -50913,15 +54005,15 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6300628837597755E-4</v>
+        <v>3.0387382986810096E-3</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.001163535633949E-3</v>
+        <v>-2.4040205190162079E-2</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="2"/>
-        <v>9.2381402286698638E-2</v>
+        <v>3.8458758768782055E-2</v>
       </c>
       <c r="F34">
         <f t="shared" si="3"/>
@@ -50929,7 +54021,7 @@
       </c>
       <c r="H34">
         <f ca="1"/>
-        <v>5.2314542112800278E-9</v>
+        <v>4.0151821187565984E-9</v>
       </c>
       <c r="K34">
         <f t="shared" si="4"/>
@@ -50937,7 +54029,7 @@
       </c>
       <c r="L34">
         <f ca="1"/>
-        <v>1.44384501773083E-9</v>
+        <v>7.4766874264159377E-8</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
@@ -50947,15 +54039,15 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.879401567169846E-2</v>
+        <v>-4.1381949009183829E-2</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="1"/>
-        <v>4.7986685420207911E-2</v>
+        <v>-1.7353462319766057E-2</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5571430088877494E-2</v>
+        <v>6.7036293034816161E-2</v>
       </c>
       <c r="F35">
         <f t="shared" si="3"/>
@@ -50963,7 +54055,7 @@
       </c>
       <c r="H35">
         <f ca="1"/>
-        <v>7.3455509817733937E-9</v>
+        <v>7.845395927087565E-9</v>
       </c>
       <c r="K35">
         <f t="shared" si="4"/>
@@ -50971,7 +54063,7 @@
       </c>
       <c r="L35">
         <f ca="1"/>
-        <v>5.6025853533980802E-9</v>
+        <v>4.4635481343622996E-8</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -50981,15 +54073,15 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1891157249197871E-3</v>
+        <v>1.4063823529551146E-2</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8264432475583404E-3</v>
+        <v>3.3620183822540416E-2</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5374176078030064E-3</v>
+        <v>7.973680149766621E-2</v>
       </c>
       <c r="F36">
         <f t="shared" si="3"/>
@@ -50997,7 +54089,7 @@
       </c>
       <c r="H36">
         <f ca="1"/>
-        <v>1.0399679070205787E-8</v>
+        <v>1.335361637449669E-8</v>
       </c>
       <c r="K36">
         <f t="shared" si="4"/>
@@ -51005,7 +54097,7 @@
       </c>
       <c r="L36">
         <f ca="1"/>
-        <v>2.5659195354476884E-6</v>
+        <v>5.3699051219895857E-8</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -51015,15 +54107,15 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3440036964297849E-2</v>
+        <v>4.1866058320625232E-2</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0023560379404724E-2</v>
+        <v>-3.7345975864818325E-2</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6717015858265804E-2</v>
+        <v>2.6434591712942213E-2</v>
       </c>
       <c r="F37">
         <f t="shared" si="3"/>
@@ -51031,7 +54123,7 @@
       </c>
       <c r="H37">
         <f ca="1"/>
-        <v>1.80874001801158E-7</v>
+        <v>1.9859894505107498E-8</v>
       </c>
       <c r="K37">
         <f t="shared" si="4"/>
@@ -51039,7 +54131,7 @@
       </c>
       <c r="L37">
         <f ca="1"/>
-        <v>7.8316194212275331E-6</v>
+        <v>3.8836667874361753E-7</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -51049,15 +54141,15 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="1"/>
-        <v>3.0786625836001558E-2</v>
+        <v>-3.6866433289198211E-2</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="1"/>
-        <v>4.2371503323078076E-2</v>
+        <v>-3.9094058610701136E-2</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0885149104369752E-2</v>
+        <v>1.0023204436476653E-2</v>
       </c>
       <c r="F38">
         <f t="shared" si="3"/>
@@ -51065,7 +54157,7 @@
       </c>
       <c r="H38">
         <f ca="1"/>
-        <v>3.9808454268775723E-7</v>
+        <v>5.6294968820705924E-8</v>
       </c>
       <c r="K38">
         <f t="shared" si="4"/>
@@ -51073,7 +54165,7 @@
       </c>
       <c r="L38">
         <f ca="1"/>
-        <v>2.3182549738313018E-6</v>
+        <v>8.7184844714649926E-7</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -51083,15 +54175,15 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.3761793428172175E-2</v>
+        <v>-4.9630924530283506E-3</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.2660072748337015E-2</v>
+        <v>1.6785730800767441E-2</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="2"/>
-        <v>9.182993742917496E-2</v>
+        <v>4.1525084384844459E-2</v>
       </c>
       <c r="F39">
         <f t="shared" si="3"/>
@@ -51099,7 +54191,7 @@
       </c>
       <c r="H39">
         <f ca="1"/>
-        <v>6.3381349194960122E-7</v>
+        <v>8.2043686677281658E-7</v>
       </c>
       <c r="K39">
         <f t="shared" si="4"/>
@@ -51107,7 +54199,7 @@
       </c>
       <c r="L39">
         <f ca="1"/>
-        <v>3.1402590835283971E-6</v>
+        <v>7.4030164155239905E-7</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -51117,15 +54209,15 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="1"/>
-        <v>3.6484687017805988E-2</v>
+        <v>4.980799721040341E-2</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="1"/>
-        <v>1.4244527165148336E-2</v>
+        <v>-4.3166344473285913E-2</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3981133016603746E-2</v>
+        <v>7.5288412222202401E-3</v>
       </c>
       <c r="F40">
         <f t="shared" si="3"/>
@@ -51133,7 +54225,7 @@
       </c>
       <c r="H40">
         <f ca="1"/>
-        <v>9.3639209751471923E-7</v>
+        <v>1.7782643750524441E-6</v>
       </c>
       <c r="K40">
         <f t="shared" si="4"/>
@@ -51141,7 +54233,7 @@
       </c>
       <c r="L40">
         <f ca="1"/>
-        <v>5.547111025514195E-6</v>
+        <v>3.5928935184510412E-6</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -51151,15 +54243,15 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4064755748178475E-2</v>
+        <v>4.3111563816163427E-2</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.6440720652339285E-3</v>
+        <v>4.8195643240404422E-2</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2428486972266432E-3</v>
+        <v>9.5626501346965598E-2</v>
       </c>
       <c r="F41">
         <f t="shared" si="3"/>
@@ -51167,7 +54259,7 @@
       </c>
       <c r="H41">
         <f ca="1"/>
-        <v>1.3302449102543416E-6</v>
+        <v>4.273443522411734E-5</v>
       </c>
       <c r="K41">
         <f t="shared" si="4"/>
@@ -51175,7 +54267,7 @@
       </c>
       <c r="L41">
         <f ca="1"/>
-        <v>4.8038299815063567E-4</v>
+        <v>5.3521186189719944E-7</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -51185,15 +54277,15 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4261638676272982E-2</v>
+        <v>4.3712564770691756E-2</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="1"/>
-        <v>2.2700393860021317E-2</v>
+        <v>3.7809347728789147E-2</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="2"/>
-        <v>5.5033669184174232E-2</v>
+        <v>9.8178210806297642E-3</v>
       </c>
       <c r="F42">
         <f t="shared" si="3"/>
@@ -51201,7 +54293,7 @@
       </c>
       <c r="H42">
         <f ca="1"/>
-        <v>4.2197129020854922E-5</v>
+        <v>8.3203665405876012E-5</v>
       </c>
       <c r="K42">
         <f t="shared" si="4"/>
@@ -51209,7 +54301,7 @@
       </c>
       <c r="L42">
         <f ca="1"/>
-        <v>1.38298235026745E-4</v>
+        <v>1.0927979252553864E-4</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -51219,15 +54311,15 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.4393096697789796E-2</v>
+        <v>-4.9123219482030189E-2</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.3249107594919706E-2</v>
+        <v>-4.0474121697986476E-3</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="2"/>
-        <v>1.732532729723275E-2</v>
+        <v>1.7458757180002171E-2</v>
       </c>
       <c r="F43">
         <f t="shared" si="3"/>
@@ -51235,7 +54327,7 @@
       </c>
       <c r="H43">
         <f ca="1"/>
-        <v>8.7394963604116242E-5</v>
+        <v>1.6670485191080567E-4</v>
       </c>
       <c r="K43">
         <f t="shared" si="4"/>
@@ -51243,7 +54335,7 @@
       </c>
       <c r="L43">
         <f ca="1"/>
-        <v>8.5616263215497002E-4</v>
+        <v>4.8391138800894448E-4</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -51253,15 +54345,15 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="1"/>
-        <v>1.7567542199723153E-2</v>
+        <v>-1.5697298575988849E-2</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="1"/>
-        <v>4.4248928707837601E-2</v>
+        <v>1.3133084748425596E-2</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="2"/>
-        <v>8.1475690047219662E-3</v>
+        <v>4.2739118637243327E-2</v>
       </c>
       <c r="F44">
         <f t="shared" si="3"/>
@@ -51269,7 +54361,7 @@
       </c>
       <c r="H44">
         <f ca="1"/>
-        <v>4.9375890475770567E-4</v>
+        <v>7.0454204072933012E-4</v>
       </c>
       <c r="K44">
         <f t="shared" si="4"/>
@@ -51277,7 +54369,7 @@
       </c>
       <c r="L44">
         <f ca="1"/>
-        <v>2.1872156503598091E-2</v>
+        <v>3.412715156020079E-4</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -51287,15 +54379,15 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="1"/>
-        <v>2.1309265918319734E-2</v>
+        <v>-4.6380252374204525E-2</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="1"/>
-        <v>2.0776342182587716E-2</v>
+        <v>3.6919890957328248E-2</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="2"/>
-        <v>3.702302310001087E-2</v>
+        <v>4.3056991521913338E-3</v>
       </c>
       <c r="F45">
         <f t="shared" si="3"/>
@@ -51303,7 +54395,7 @@
       </c>
       <c r="H45">
         <f ca="1"/>
-        <v>9.3913910883169514E-4</v>
+        <v>1.4434770799570114E-3</v>
       </c>
       <c r="K45">
         <f t="shared" si="4"/>
@@ -51311,7 +54403,7 @@
       </c>
       <c r="L45">
         <f ca="1"/>
-        <v>2.88740953136171E-2</v>
+        <v>7.8798001990881175E-2</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -51321,15 +54413,15 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8313363244672398E-2</v>
+        <v>3.9444313480718723E-2</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="1"/>
-        <v>3.7833616112687721E-2</v>
+        <v>2.2815025003903424E-3</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="2"/>
-        <v>6.3112562368088251E-2</v>
+        <v>3.7233741404777414E-2</v>
       </c>
       <c r="F46">
         <f t="shared" si="3"/>
@@ -51337,7 +54429,7 @@
       </c>
       <c r="H46">
         <f ca="1"/>
-        <v>1.7037648657530372E-3</v>
+        <v>2.9694842044883543E-3</v>
       </c>
       <c r="K46">
         <f t="shared" si="4"/>
@@ -51345,7 +54437,7 @@
       </c>
       <c r="L46">
         <f ca="1"/>
-        <v>2.3490601328459978E-2</v>
+        <v>8.8505983644876079E-2</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -51355,15 +54447,15 @@
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.833512376500206E-2</v>
+        <v>1.922636954800483E-3</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="1"/>
-        <v>-9.3623260040957331E-3</v>
+        <v>-2.1726019332954229E-2</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5414909942221332E-2</v>
+        <v>5.4458001651243676E-2</v>
       </c>
       <c r="F47">
         <f t="shared" si="3"/>
@@ -51371,7 +54463,7 @@
       </c>
       <c r="H47">
         <f ca="1"/>
-        <v>2.6318535940316693E-3</v>
+        <v>6.1221753019878753E-3</v>
       </c>
       <c r="K47">
         <f t="shared" si="4"/>
@@ -51379,7 +54471,7 @@
       </c>
       <c r="L47">
         <f ca="1"/>
-        <v>0.20643429694003779</v>
+        <v>7.6847732564536086E-2</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -51389,15 +54481,15 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="1"/>
-        <v>4.1869998001904801E-2</v>
+        <v>2.2766798435614466E-3</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="1"/>
-        <v>-8.8667098813249526E-3</v>
+        <v>2.3160610383433478E-2</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="2"/>
-        <v>2.085022493605302E-2</v>
+        <v>5.1553799876457002E-2</v>
       </c>
       <c r="F48">
         <f t="shared" si="3"/>
@@ -51405,7 +54497,7 @@
       </c>
       <c r="H48" s="1">
         <f ca="1"/>
-        <v>7.0574249851004488E-3</v>
+        <v>1.1389057999476747E-2</v>
       </c>
       <c r="K48">
         <f t="shared" si="4"/>
@@ -51413,7 +54505,7 @@
       </c>
       <c r="L48">
         <f ca="1"/>
-        <v>0.5841780525827458</v>
+        <v>0.15951999978370665</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -51423,15 +54515,15 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="1"/>
-        <v>3.683589233032155E-2</v>
+        <v>1.3583531786605742E-2</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.0201846489674991E-2</v>
+        <v>1.0796327843710618E-2</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="2"/>
-        <v>6.9362861205020984E-2</v>
+        <v>6.4209103973333461E-3</v>
       </c>
       <c r="F49">
         <f t="shared" si="3"/>
@@ -51439,7 +54531,7 @@
       </c>
       <c r="H49">
         <f ca="1"/>
-        <v>1.7210305848903401E-2</v>
+        <v>1.751359603815731E-2</v>
       </c>
       <c r="K49">
         <f t="shared" si="4"/>
@@ -51447,7 +54539,7 @@
       </c>
       <c r="L49">
         <f ca="1"/>
-        <v>2.8840683514090085E-2</v>
+        <v>0.52434188652507951</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -51457,15 +54549,15 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.036462775786967E-2</v>
+        <v>3.7524541403980538E-2</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9572791939477108E-2</v>
+        <v>-1.7879891841885876E-3</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="2"/>
-        <v>5.6857700994145936E-2</v>
+        <v>4.8839647234504249E-2</v>
       </c>
       <c r="F50">
         <f t="shared" si="3"/>
@@ -51473,7 +54565,7 @@
       </c>
       <c r="H50">
         <f ca="1"/>
-        <v>2.8609687952760032E-2</v>
+        <v>2.6500247303586636E-2</v>
       </c>
       <c r="K50">
         <f t="shared" si="4"/>
@@ -51481,7 +54573,7 @@
       </c>
       <c r="L50">
         <f ca="1"/>
-        <v>1.8093881951272234E-2</v>
+        <v>3.2832414907855351E-2</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -51491,15 +54583,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.5572717911879319E-2</v>
+        <v>-1.1581377943866501E-2</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4474204269624824E-2</v>
+        <v>1.9775618502119341E-2</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7276572114699741E-3</v>
+        <v>7.9060743796879329E-2</v>
       </c>
       <c r="F51">
         <f t="shared" si="3"/>
@@ -51507,7 +54599,7 @@
       </c>
       <c r="H51">
         <f ca="1"/>
-        <v>3.8940771606408853E-2</v>
+        <v>3.6208163163520157E-2</v>
       </c>
       <c r="K51">
         <f t="shared" si="4"/>
@@ -51515,7 +54607,7 @@
       </c>
       <c r="L51">
         <f ca="1"/>
-        <v>5.4591431331051446E-2</v>
+        <v>7.9161206955749956E-3</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -51525,15 +54617,15 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8023149987321185E-2</v>
+        <v>-1.0268936509002558E-2</v>
       </c>
       <c r="D52">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.5211071116152853E-2</v>
+        <v>4.4952845788922793E-2</v>
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5484211721707187E-2</v>
+        <v>7.9229316650701417E-2</v>
       </c>
       <c r="F52">
         <f t="shared" si="3"/>
@@ -51541,7 +54633,7 @@
       </c>
       <c r="H52">
         <f ca="1"/>
-        <v>4.3602418631104783E-2</v>
+        <v>4.5471166620425503E-2</v>
       </c>
       <c r="K52">
         <f t="shared" si="4"/>
@@ -51549,7 +54641,7 @@
       </c>
       <c r="L52">
         <f ca="1"/>
-        <v>2.4528963820577707E-2</v>
+        <v>4.7936310406979116E-3</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -51559,15 +54651,15 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="1"/>
-        <v>8.8806956836076211E-3</v>
+        <v>-2.5375423226413254E-2</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.9386293794493938E-2</v>
+        <v>-4.5211581383005411E-3</v>
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4695402159242597E-2</v>
+        <v>2.9429932789856172E-2</v>
       </c>
       <c r="F53">
         <f t="shared" si="3"/>
@@ -51575,7 +54667,7 @@
       </c>
       <c r="H53">
         <f ca="1"/>
-        <v>5.2748812767026559E-2</v>
+        <v>5.3613205851980039E-2</v>
       </c>
       <c r="K53">
         <f t="shared" si="4"/>
@@ -51583,7 +54675,7 @@
       </c>
       <c r="L53">
         <f ca="1"/>
-        <v>2.7716915811181052E-3</v>
+        <v>1.6418837657049136E-2</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -51593,15 +54685,15 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.1830540357678083E-3</v>
+        <v>-2.639878778934002E-3</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="1"/>
-        <v>3.4619696931552348E-2</v>
+        <v>-3.7769012666540605E-2</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8154057684120384E-2</v>
+        <v>2.8170146237184425E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="3"/>
@@ -51609,7 +54701,7 @@
       </c>
       <c r="H54">
         <f ca="1"/>
-        <v>6.491069310278974E-2</v>
+        <v>6.1010201401129172E-2</v>
       </c>
       <c r="K54">
         <f t="shared" si="4"/>
@@ -51617,7 +54709,7 @@
       </c>
       <c r="L54">
         <f ca="1"/>
-        <v>5.4718314976299933E-4</v>
+        <v>5.5373775721483109E-3</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -51627,15 +54719,15 @@
       </c>
       <c r="C55">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1607992804258484E-2</v>
+        <v>-2.4173293833403331E-2</v>
       </c>
       <c r="D55">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.4333196531230884E-2</v>
+        <v>-4.2347591161796209E-3</v>
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="2"/>
-        <v>3.6529960582069643E-2</v>
+        <v>9.782644192094811E-2</v>
       </c>
       <c r="F55">
         <f t="shared" si="3"/>
@@ -51643,7 +54735,7 @@
       </c>
       <c r="H55">
         <f ca="1"/>
-        <v>7.3093960215871584E-2</v>
+        <v>7.1385550328104092E-2</v>
       </c>
       <c r="K55">
         <f t="shared" si="4"/>
@@ -51651,7 +54743,7 @@
       </c>
       <c r="L55">
         <f ca="1"/>
-        <v>3.236714890528428E-4</v>
+        <v>3.2911984415415186E-4</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -51661,15 +54753,15 @@
       </c>
       <c r="C56">
         <f t="shared" ref="C56:D73" ca="1" si="5">0.1*(RAND()-0.5)</f>
-        <v>1.3265419305630423E-2</v>
+        <v>1.7434944110598895E-2</v>
       </c>
       <c r="D56">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.6693105774480594E-2</v>
+        <v>-3.9525355694988051E-2</v>
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="2"/>
-        <v>7.173344183153775E-2</v>
+        <v>7.1586189498814803E-2</v>
       </c>
       <c r="F56">
         <f t="shared" si="3"/>
@@ -51677,7 +54769,7 @@
       </c>
       <c r="H56">
         <f ca="1"/>
-        <v>8.5699066860184414E-2</v>
+        <v>8.1514510612815644E-2</v>
       </c>
       <c r="K56">
         <f t="shared" si="4"/>
@@ -51685,7 +54777,7 @@
       </c>
       <c r="L56">
         <f ca="1"/>
-        <v>3.9985578815434233E-5</v>
+        <v>3.7103685491874608E-4</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -51695,15 +54787,15 @@
       </c>
       <c r="C57">
         <f t="shared" ca="1" si="5"/>
-        <v>3.9913796901552917E-2</v>
+        <v>2.0282858550341634E-2</v>
       </c>
       <c r="D57">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8550111478736092E-2</v>
+        <v>-3.4138201152806046E-2</v>
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="2"/>
-        <v>2.3611962543800515E-2</v>
+        <v>7.1631312880663975E-2</v>
       </c>
       <c r="F57">
         <f t="shared" si="3"/>
@@ -51711,7 +54803,7 @@
       </c>
       <c r="H57">
         <f ca="1"/>
-        <v>0.10025474514971248</v>
+        <v>9.2717287898253037E-2</v>
       </c>
       <c r="K57">
         <f t="shared" si="4"/>
@@ -51719,7 +54811,7 @@
       </c>
       <c r="L57">
         <f ca="1"/>
-        <v>7.3584943259524598E-5</v>
+        <v>2.1407091682446754E-4</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -51729,15 +54821,15 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.5384128377334755E-2</v>
+        <v>4.9292348293982692E-2</v>
       </c>
       <c r="D58">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1035831275724661E-2</v>
+        <v>3.1496264597222393E-2</v>
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3246450113864112E-3</v>
+        <v>5.5485289765244097E-2</v>
       </c>
       <c r="F58">
         <f t="shared" si="3"/>
@@ -51745,7 +54837,7 @@
       </c>
       <c r="H58">
         <f ca="1"/>
-        <v>0.10883768601508534</v>
+        <v>0.10512816177076847</v>
       </c>
       <c r="K58">
         <f t="shared" si="4"/>
@@ -51753,7 +54845,7 @@
       </c>
       <c r="L58">
         <f ca="1"/>
-        <v>1.039557987735737E-4</v>
+        <v>1.9933983243157442E-4</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -51763,15 +54855,15 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1330841807822885E-2</v>
+        <v>3.5056175237780998E-2</v>
       </c>
       <c r="D59">
         <f t="shared" ca="1" si="5"/>
-        <v>3.8562706461839395E-2</v>
+        <v>6.9352100922352227E-3</v>
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="2"/>
-        <v>2.7240619123023758E-2</v>
+        <v>4.8421647476006184E-2</v>
       </c>
       <c r="F59">
         <f t="shared" si="3"/>
@@ -51779,7 +54871,7 @@
       </c>
       <c r="H59">
         <f ca="1"/>
-        <v>0.11881891270225256</v>
+        <v>0.11573806104815776</v>
       </c>
       <c r="K59">
         <f t="shared" si="4"/>
@@ -51787,7 +54879,7 @@
       </c>
       <c r="L59">
         <f ca="1"/>
-        <v>9.8448398563512814E-6</v>
+        <v>1.7741660392158593E-4</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -51797,15 +54889,15 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.6344355002116205E-2</v>
+        <v>3.1731115547076486E-2</v>
       </c>
       <c r="D60">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0707690601879816E-3</v>
+        <v>2.2059734006932286E-2</v>
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="2"/>
-        <v>8.0939162067731338E-4</v>
+        <v>7.7784169114623464E-2</v>
       </c>
       <c r="F60">
         <f t="shared" si="3"/>
@@ -51813,7 +54905,7 @@
       </c>
       <c r="H60">
         <f ca="1"/>
-        <v>0.12638109373294135</v>
+        <v>0.12631988464649249</v>
       </c>
       <c r="K60">
         <f t="shared" si="4"/>
@@ -51821,7 +54913,7 @@
       </c>
       <c r="L60">
         <f ca="1"/>
-        <v>1.8312991115134767E-5</v>
+        <v>4.305304243800146E-5</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -51831,15 +54923,15 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="5"/>
-        <v>4.8125277807180636E-2</v>
+        <v>-3.4718556680638182E-2</v>
       </c>
       <c r="D61">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1549970837725954E-3</v>
+        <v>1.609134618391167E-2</v>
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5979419467012942E-3</v>
+        <v>5.0268271490558715E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="3"/>
@@ -51847,7 +54939,7 @@
       </c>
       <c r="H61">
         <f ca="1"/>
-        <v>0.13504339184357761</v>
+        <v>0.13646867252664274</v>
       </c>
       <c r="K61">
         <f t="shared" si="4"/>
@@ -51855,7 +54947,7 @@
       </c>
       <c r="L61">
         <f ca="1"/>
-        <v>3.8213136762753837E-7</v>
+        <v>5.306716816943912E-5</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -51865,15 +54957,15 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="5"/>
-        <v>4.1168740707276056E-3</v>
+        <v>-1.6375624300698655E-2</v>
       </c>
       <c r="D62">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.0120784309553886E-3</v>
+        <v>2.2424947284289534E-2</v>
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7404816881659825E-2</v>
+        <v>2.4316658619262511E-2</v>
       </c>
       <c r="F62">
         <f t="shared" si="3"/>
@@ -51881,7 +54973,7 @@
       </c>
       <c r="H62">
         <f ca="1"/>
-        <v>0.14495178555379049</v>
+        <v>0.14555073296985593</v>
       </c>
       <c r="K62">
         <f t="shared" si="4"/>
@@ -51889,7 +54981,7 @@
       </c>
       <c r="L62">
         <f ca="1"/>
-        <v>6.6005159440882961E-8</v>
+        <v>8.0961534833993065E-5</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -51899,15 +54991,15 @@
       </c>
       <c r="C63">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.7738229285074724E-2</v>
+        <v>-3.8239042711867413E-2</v>
       </c>
       <c r="D63">
         <f t="shared" ca="1" si="5"/>
-        <v>4.4954571388906267E-2</v>
+        <v>-4.572959181835861E-2</v>
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="2"/>
-        <v>8.3822716697932634E-2</v>
+        <v>4.3456628903599803E-3</v>
       </c>
       <c r="F63">
         <f t="shared" si="3"/>
@@ -51915,7 +55007,7 @@
       </c>
       <c r="H63">
         <f ca="1"/>
-        <v>0.15644308989244723</v>
+        <v>0.15068067800893262</v>
       </c>
       <c r="K63">
         <f t="shared" si="4"/>
@@ -51923,7 +55015,7 @@
       </c>
       <c r="L63">
         <f ca="1"/>
-        <v>1.8874545873059134E-9</v>
+        <v>4.8620928906868741E-5</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -51933,15 +55025,15 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9399814007274972E-2</v>
+        <v>-1.0398618739115507E-2</v>
       </c>
       <c r="D64">
         <f t="shared" ca="1" si="5"/>
-        <v>2.5436281848809941E-2</v>
+        <v>-6.6753215454690047E-3</v>
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7531635711346067E-2</v>
+        <v>9.7510866924236841E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="3"/>
@@ -51949,7 +55041,7 @@
       </c>
       <c r="H64">
         <f ca="1"/>
-        <v>0.16666692140277026</v>
+        <v>0.16025712747984283</v>
       </c>
       <c r="K64">
         <f t="shared" si="4"/>
@@ -51957,7 +55049,7 @@
       </c>
       <c r="L64">
         <f ca="1"/>
-        <v>1.6178500241804143E-9</v>
+        <v>6.698764408870666E-8</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -51967,15 +55059,15 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.8566299000921074E-2</v>
+        <v>-3.6391951200324915E-2</v>
       </c>
       <c r="D65">
         <f t="shared" ca="1" si="5"/>
-        <v>2.443092345360556E-2</v>
+        <v>-1.1365777024910007E-2</v>
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="2"/>
-        <v>5.8585145614943247E-2</v>
+        <v>7.0336853187191142E-2</v>
       </c>
       <c r="F65">
         <f t="shared" si="3"/>
@@ -51983,7 +55075,7 @@
       </c>
       <c r="H65">
         <f ca="1"/>
-        <v>0.17644786244570959</v>
+        <v>0.16953393871313061</v>
       </c>
       <c r="K65">
         <f t="shared" si="4"/>
@@ -51991,7 +55083,7 @@
       </c>
       <c r="L65">
         <f ca="1"/>
-        <v>1.9283178680639491E-9</v>
+        <v>8.0795747961228473E-8</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -52001,15 +55093,15 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="5"/>
-        <v>1.4718385878670316E-2</v>
+        <v>-2.6249606271508841E-2</v>
       </c>
       <c r="D66">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.815484118802826E-2</v>
+        <v>-4.1683992136007458E-2</v>
       </c>
       <c r="E66">
         <f t="shared" ca="1" si="2"/>
-        <v>6.0045324941238799E-2</v>
+        <v>3.8781944487406177E-2</v>
       </c>
       <c r="F66">
         <f t="shared" si="3"/>
@@ -52017,7 +55109,7 @@
       </c>
       <c r="H66">
         <f ca="1"/>
-        <v>0.18513820614627108</v>
+        <v>0.17810368973486587</v>
       </c>
       <c r="K66">
         <f t="shared" si="4"/>
@@ -52025,7 +55117,7 @@
       </c>
       <c r="L66">
         <f ca="1"/>
-        <v>1.2393642791290379E-9</v>
+        <v>1.0476393428172691E-7</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -52035,15 +55127,15 @@
       </c>
       <c r="C67">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.9273953999858315E-2</v>
+        <v>-1.6089234873050386E-2</v>
       </c>
       <c r="D67">
         <f t="shared" ca="1" si="5"/>
-        <v>6.1932612355721679E-3</v>
+        <v>-3.9750048379041995E-2</v>
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4866366851413614E-2</v>
+        <v>1.7332522347527936E-2</v>
       </c>
       <c r="F67">
         <f t="shared" si="3"/>
@@ -52051,7 +55143,7 @@
       </c>
       <c r="H67">
         <f ca="1"/>
-        <v>0.19536762839261462</v>
+        <v>0.18713376793241276</v>
       </c>
       <c r="K67">
         <f t="shared" si="4"/>
@@ -52059,7 +55151,7 @@
       </c>
       <c r="L67">
         <f ca="1"/>
-        <v>3.4104855641593587E-10</v>
+        <v>7.8527371608484575E-8</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -52069,15 +55161,15 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="5"/>
-        <v>1.5996300403885223E-3</v>
+        <v>4.6996469829398785E-2</v>
       </c>
       <c r="D68">
         <f t="shared" ca="1" si="5"/>
-        <v>1.1900402962680724E-2</v>
+        <v>-2.4898607275329356E-2</v>
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6610641274738595E-2</v>
+        <v>6.1578627816661582E-2</v>
       </c>
       <c r="F68">
         <f t="shared" si="3"/>
@@ -52085,7 +55177,7 @@
       </c>
       <c r="H68">
         <f ca="1"/>
-        <v>0.20532220646682858</v>
+        <v>0.19710842667405232</v>
       </c>
       <c r="K68">
         <f t="shared" si="4"/>
@@ -52093,7 +55185,7 @@
       </c>
       <c r="L68">
         <f ca="1"/>
-        <v>2.6429310869832519E-10</v>
+        <v>3.4059745131338081E-9</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -52103,15 +55195,15 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.6123198199157388E-3</v>
+        <v>-3.0129138778638754E-2</v>
       </c>
       <c r="D69">
         <f t="shared" ca="1" si="5"/>
-        <v>1.7467124637851883E-2</v>
+        <v>-4.0114373357987093E-2</v>
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6136476190458399E-2</v>
+        <v>1.1716341376372598E-2</v>
       </c>
       <c r="F69">
         <f t="shared" si="3"/>
@@ -52119,7 +55211,7 @@
       </c>
       <c r="H69">
         <f ca="1"/>
-        <v>0.21501244702788977</v>
+        <v>0.20721666487147694</v>
       </c>
       <c r="K69">
         <f t="shared" si="4"/>
@@ -52127,7 +55219,7 @@
       </c>
       <c r="L69">
         <f ca="1"/>
-        <v>2.5788719384092174E-10</v>
+        <v>7.1228918430098207E-9</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -52137,15 +55229,15 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="5"/>
-        <v>-4.868104776217657E-2</v>
+        <v>3.9469991453263346E-2</v>
       </c>
       <c r="D70">
         <f t="shared" ca="1" si="5"/>
-        <v>-1.6021034323155769E-2</v>
+        <v>4.5932939946079977E-2</v>
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9526996878690719E-2</v>
+        <v>4.1840977935884788E-2</v>
       </c>
       <c r="F70">
         <f t="shared" si="3"/>
@@ -52153,7 +55245,7 @@
       </c>
       <c r="H70">
         <f ca="1"/>
-        <v>0.22390058992163497</v>
+        <v>0.22194630990527425</v>
       </c>
       <c r="K70">
         <f t="shared" si="4"/>
@@ -52161,7 +55253,7 @@
       </c>
       <c r="L70">
         <f ca="1"/>
-        <v>7.217169491127842E-10</v>
+        <v>2.3439487262341431E-10</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -52171,15 +55263,15 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="5"/>
-        <v>1.41082759767321E-2</v>
+        <v>-4.1101768087446124E-2</v>
       </c>
       <c r="D71">
         <f t="shared" ca="1" si="5"/>
-        <v>-2.5180100404837202E-2</v>
+        <v>-2.5859277928877891E-2</v>
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>2.5846939594966967E-2</v>
+        <v>1.9728355150139265E-3</v>
       </c>
       <c r="F71">
         <f t="shared" si="3"/>
@@ -52187,7 +55279,7 @@
       </c>
       <c r="H71">
         <f ca="1"/>
-        <v>0.23223398779396429</v>
+        <v>0.23134785898688368</v>
       </c>
       <c r="K71">
         <f t="shared" si="4"/>
@@ -52195,7 +55287,7 @@
       </c>
       <c r="L71">
         <f ca="1"/>
-        <v>1.1427160524946021E-10</v>
+        <v>4.7519173540284592E-10</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -52205,15 +55297,15 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="5"/>
-        <v>-5.1788237982885012E-3</v>
+        <v>6.696503655065922E-3</v>
       </c>
       <c r="D72">
         <f t="shared" ca="1" si="5"/>
-        <v>1.2180278455773986E-2</v>
+        <v>4.2885308192577111E-2</v>
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3.4998454687909235E-2</v>
+        <v>5.2607843561059634E-3</v>
       </c>
       <c r="F72">
         <f t="shared" si="3"/>
@@ -52221,7 +55313,7 @@
       </c>
       <c r="H72">
         <f ca="1"/>
-        <v>0.24451788927764484</v>
+        <v>0.25073671397143199</v>
       </c>
       <c r="K72">
         <f t="shared" si="4"/>
@@ -52229,7 +55321,7 @@
       </c>
       <c r="L72">
         <f ca="1"/>
-        <v>2.1859407753310304E-11</v>
+        <v>1.1574455883219438E-12</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -52239,15 +55331,15 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="5"/>
-        <v>1.0554243378611706E-2</v>
+        <v>-4.4061628994274488E-2</v>
       </c>
       <c r="D73">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6541787747592408E-3</v>
+        <v>-5.993719709809631E-3</v>
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5498529359600756E-2</v>
+        <v>5.5369088314095996E-2</v>
       </c>
       <c r="F73">
         <f t="shared" si="3"/>
@@ -52255,7 +55347,7 @@
       </c>
       <c r="H73">
         <f ca="1"/>
-        <v>0.2543289376235246</v>
+        <v>0.25690556089312599</v>
       </c>
       <c r="K73">
         <f t="shared" si="4"/>
@@ -52263,7 +55355,7 @@
       </c>
       <c r="L73">
         <f ca="1"/>
-        <v>4.0020009075775909E-11</v>
+        <v>1.1248207381497498E-12</v>
       </c>
     </row>
   </sheetData>
@@ -52278,7 +55370,7 @@
   <dimension ref="B2:W73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
